--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10888000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10815000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10884000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10885000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10443000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10193000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9999000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10051000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9773000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10229000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10145000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9850000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9083000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9182000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9871000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9366000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9745000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9549000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9251000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8838000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8660000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8752000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8753000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8786000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8794000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8648000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8036000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7699000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1017000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1449000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1139000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1336000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1192000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1355000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1339000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1299000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1020000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1443000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1351000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1202000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1047000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1483000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,34 +1005,37 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>52000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>8000</v>
       </c>
       <c r="H14" s="3">
         <v>8000</v>
       </c>
       <c r="I14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="J14" s="3">
         <v>14000</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10387000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9989000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10280000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10049000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9808000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9386000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9180000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9254000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9275000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9307000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9464000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9153000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8512000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8200000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E18" s="3">
         <v>826000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>604000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>836000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>635000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>807000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>819000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>797000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>498000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>922000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>681000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>697000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>571000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>982000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E20" s="3">
         <v>19000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>25000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>13000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>903000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1133000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>878000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1131000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>920000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1062000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1090000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1048000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>737000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1157000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>892000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>875000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>754000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1147000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E22" s="3">
         <v>120000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>123000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>121000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>119000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>99000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>87000</v>
       </c>
       <c r="J22" s="3">
         <v>87000</v>
       </c>
       <c r="K22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="L22" s="3">
         <v>84000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>86000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>94000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>71000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>56000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>58000</v>
       </c>
       <c r="Q22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E23" s="3">
         <v>725000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>466000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>724000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>528000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>713000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>757000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>723000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>423000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>842000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>580000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>617000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>519000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>912000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E24" s="3">
         <v>164000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>94000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>43000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>98000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>161000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>220000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>182000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>204000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>185000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>169000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>178000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>318000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E26" s="3">
         <v>561000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>372000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>681000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>430000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>552000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>537000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>541000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>307000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>638000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>395000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>448000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>341000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>594000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E27" s="3">
         <v>557000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>369000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>676000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>426000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>551000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>537000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>540000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>306000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>637000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>394000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>447000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>340000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>593000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1654,20 +1715,20 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>9000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>994000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-25000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-13000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E33" s="3">
         <v>557000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>369000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>676000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>426000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>551000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>537000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>541000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>315000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1631000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>394000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>447000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>340000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>593000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E35" s="3">
         <v>557000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>369000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>676000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>426000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>551000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>537000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>541000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>315000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1631000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>394000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>447000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>340000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>593000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E41" s="3">
         <v>497000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>484000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>406000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>360000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>270000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>170000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>198000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>293000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>318000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>231000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>243000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>307000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2248000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2063000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2173000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2452000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1837000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1892000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1723000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1684000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1594000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1675000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1710000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1589000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1512000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4025000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4304000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4108000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4149000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3899000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3777000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3513000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3378000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3328000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3213000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3239000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3248000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2970000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2767000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E45" s="3">
         <v>329000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>404000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>426000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>280000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>232000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>182000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>845000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>870000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>887000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1026000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1099000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>215000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>156000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7099000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7193000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7169000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7433000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6376000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6301000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5688000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6077000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5990000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5993000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6258000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6288000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5017000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4742000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8005000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7911000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7282000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7271000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7085000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7018000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6169000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5925000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5755000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5673000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5568000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5545000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5283000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5206000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17745000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17837000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17881000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18150000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18241000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18255000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16498000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15903000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15635000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15686000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15567000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15636000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11705000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11733000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1041000</v>
+      </c>
+      <c r="E52" s="3">
         <v>870000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>765000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>811000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>796000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>761000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>754000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>733000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>711000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>694000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>673000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>594000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>591000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>576000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33890000</v>
+      </c>
+      <c r="E54" s="3">
         <v>33811000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33097000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33665000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32498000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32335000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29109000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28638000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28091000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28046000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28066000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28063000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22596000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22257000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1916000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1926000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1958000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1710000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1962000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1694000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1546000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1485000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1748000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1698000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1608000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1466000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1591000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1947000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2102000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2125000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1564000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3917000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1911000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1308000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1128000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>811000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>906000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1017000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>543000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>66000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1673000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1485000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1514000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1340000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1551000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1426000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1258000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1225000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1419000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1428000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1240000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1097000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1315000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4406000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5536000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5513000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5597000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4614000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7430000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5031000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4112000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3838000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3978000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4032000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3865000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3106000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2972000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10978000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9772000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9830000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10461000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10810000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8075000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7962000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8852000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8872000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8875000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9297000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9807000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5905000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5901000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3912000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3937000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3528000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3466000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3516000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3571000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3305000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3237000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3225000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3219000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4178000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4254000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3796000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3817000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19441000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19392000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19015000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19737000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19075000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19208000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16306000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16212000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15955000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16091000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17525000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17946000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12825000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12707000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14392000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14178000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13787000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13553000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13012000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12719000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12329000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11913000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11479000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11272000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9776000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9464000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9098000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8837000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14449000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14419000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14082000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13928000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13423000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13127000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12803000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12426000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12136000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11955000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10541000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10117000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9771000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9550000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E81" s="3">
         <v>557000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>369000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>676000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>426000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>551000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>537000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>541000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>315000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1631000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>394000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>447000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>340000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>593000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E83" s="3">
         <v>288000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>289000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>286000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>273000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>250000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>246000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>238000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>230000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>229000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>218000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>187000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>179000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>177000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E89" s="3">
         <v>894000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>978000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>596000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>71000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>868000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1039000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>785000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1126000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1150000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>467000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-152000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1134000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4183,46 +4404,49 @@
         <v>-312000</v>
       </c>
       <c r="E91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-288000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-315000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-338000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-318000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-313000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-328000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-263000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-296000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-287000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-315000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-267000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-496000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-381000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-129000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-569000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-317000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-483000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-737000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-264000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-422000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-297000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-264000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-214000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,31 +4614,32 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-134000</v>
       </c>
       <c r="F96" s="3">
         <v>-134000</v>
       </c>
       <c r="G96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-135000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-134000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-108000</v>
       </c>
       <c r="K96" s="3">
         <v>-108000</v>
@@ -4414,22 +4648,25 @@
         <v>-108000</v>
       </c>
       <c r="M96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-81000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-79000</v>
       </c>
       <c r="P96" s="3">
         <v>-79000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-507000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-761000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>201000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1711000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-455000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-71000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>153000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-729000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-769000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2908000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>348000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-957000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>78000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>46000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-40000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>130000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-28000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-95000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>87000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-64000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10022000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10888000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10815000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10884000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10885000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10443000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10193000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9999000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10051000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9773000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10229000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10145000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9850000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9083000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9182000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8709000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9871000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9366000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9745000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9549000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9251000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8838000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8660000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8752000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8753000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8786000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8794000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8648000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8036000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7699000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1017000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1449000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1139000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1336000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1192000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1355000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1339000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1299000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1020000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1443000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1351000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1202000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1047000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1483000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,37 +1025,40 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>52000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>8000</v>
       </c>
       <c r="I14" s="3">
         <v>8000</v>
       </c>
       <c r="J14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="K14" s="3">
         <v>14000</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9247000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10387000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9989000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10280000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10049000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9808000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9386000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9180000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9254000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9275000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9307000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9464000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9153000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8512000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8200000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E18" s="3">
         <v>501000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>826000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>604000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>836000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>635000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>807000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>819000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>797000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>498000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>922000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>681000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>697000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>571000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>982000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>109000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>19000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="E21" s="3">
         <v>903000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1133000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>878000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1131000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>920000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1062000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1090000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1048000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>737000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1157000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>892000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>875000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>754000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1147000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E22" s="3">
         <v>119000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>120000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>123000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>121000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>119000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>99000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>87000</v>
       </c>
       <c r="K22" s="3">
         <v>87000</v>
       </c>
       <c r="L22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="M22" s="3">
         <v>84000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>86000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>94000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>71000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>56000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>58000</v>
       </c>
       <c r="R22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>667000</v>
+      </c>
+      <c r="E23" s="3">
         <v>491000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>725000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>466000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>724000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>528000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>713000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>757000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>723000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>423000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>842000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>580000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>617000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>519000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>912000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E24" s="3">
         <v>124000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>164000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>94000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>43000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>98000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>161000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>220000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>182000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>116000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>204000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>185000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>169000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>178000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>318000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E26" s="3">
         <v>367000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>561000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>372000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>681000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>430000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>552000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>537000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>541000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>307000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>638000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>395000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>448000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>341000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>594000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E27" s="3">
         <v>364000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>557000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>369000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>676000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>426000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>551000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>537000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>540000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>306000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>637000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>394000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>447000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>340000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>593000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1718,20 +1779,20 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>9000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>994000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-109000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-19000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-25000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E33" s="3">
         <v>364000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>557000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>369000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>676000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>426000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>551000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>537000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>541000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>315000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1631000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>394000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>447000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>340000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>593000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E35" s="3">
         <v>364000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>557000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>369000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>676000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>426000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>551000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>537000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>541000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>315000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1631000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>394000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>447000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>340000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>593000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="E41" s="3">
         <v>437000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>497000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>484000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>406000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>360000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>270000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>170000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>198000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>293000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>318000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>231000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>243000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>307000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2064000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2248000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2063000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2173000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2452000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1837000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1892000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1723000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1684000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1594000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1675000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1710000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1589000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1512000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3915000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4025000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4304000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4108000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4149000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3899000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3777000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3513000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3378000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3328000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3213000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3239000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3248000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2970000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2767000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E45" s="3">
         <v>389000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>329000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>404000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>426000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>280000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>232000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>182000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>845000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>870000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>887000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1026000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1099000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>215000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>156000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7699000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7099000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7193000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7169000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7433000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6376000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6301000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5688000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6077000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5990000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5993000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6258000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6288000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5017000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4742000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8055000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8005000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7911000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7282000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7271000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7085000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7018000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6169000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5925000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5755000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5673000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5568000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5545000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5283000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5206000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17732000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17745000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17837000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17881000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18150000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18241000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18255000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16498000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15903000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15635000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15686000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15567000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15636000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11705000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11733000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1041000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>870000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>765000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>811000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>796000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>761000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>754000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>733000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>711000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>694000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>673000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>594000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>591000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>576000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34558000</v>
+      </c>
+      <c r="E54" s="3">
         <v>33890000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33811000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33097000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33665000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32498000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32335000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29109000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28638000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28091000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28046000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28066000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28063000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22596000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22257000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1743000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1742000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1916000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1926000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1958000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1710000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1962000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1694000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1546000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1485000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1748000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1698000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1608000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1466000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1591000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1142000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1947000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2102000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2125000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1564000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3917000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1911000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1308000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1128000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>811000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>906000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1017000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>543000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>66000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1780000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1522000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1673000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1485000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1514000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1340000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1551000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1426000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1258000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1225000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1419000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1428000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1240000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1097000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1315000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4273000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4406000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5536000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5513000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5597000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4614000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7430000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5031000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4112000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3838000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3978000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4032000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3865000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3106000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2972000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11279000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10978000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9772000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9830000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10461000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10810000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8075000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7962000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8852000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8872000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8875000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9297000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9807000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5905000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5901000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4002000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3912000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3937000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3528000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3466000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3516000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3571000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3305000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3237000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3225000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3219000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4178000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4254000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3796000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3817000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19700000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19441000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19392000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19015000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19737000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19075000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19208000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16306000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16212000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15955000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16091000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17525000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17946000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12825000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12707000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14769000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14392000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14178000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13787000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13553000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13012000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12719000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12329000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11913000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11479000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11272000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9776000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9464000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9098000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8837000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14858000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14449000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14419000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14082000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13928000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13423000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13127000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12803000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12426000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12136000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11955000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10541000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10117000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9771000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9550000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E81" s="3">
         <v>364000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>557000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>369000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>676000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>426000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>551000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>537000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>541000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>315000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1631000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>394000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>447000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>340000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>593000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E83" s="3">
         <v>293000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>288000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>289000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>286000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>273000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>250000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>246000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>238000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>230000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>229000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>218000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>187000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>179000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>177000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="E89" s="3">
         <v>366000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>894000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>978000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>596000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>71000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>868000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1039000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>785000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1126000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1150000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>467000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1134000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-312000</v>
+        <v>-283000</v>
       </c>
       <c r="E91" s="3">
         <v>-312000</v>
       </c>
       <c r="F91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-288000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-315000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-338000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-318000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-313000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-328000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-263000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-296000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-287000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-315000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-267000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-496000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-381000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-129000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-569000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-317000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-483000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-737000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-264000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-422000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-297000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-264000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-214000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,34 +4848,35 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-151000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-134000</v>
       </c>
       <c r="G96" s="3">
         <v>-134000</v>
       </c>
       <c r="H96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-135000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-134000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-108000</v>
       </c>
       <c r="L96" s="3">
         <v>-108000</v>
@@ -4651,22 +4885,25 @@
         <v>-108000</v>
       </c>
       <c r="N96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-81000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-79000</v>
       </c>
       <c r="Q96" s="3">
         <v>-79000</v>
       </c>
       <c r="R96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="E100" s="3">
         <v>168000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-507000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-761000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>201000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1711000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-455000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-71000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>153000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-729000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-769000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2908000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>348000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-957000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>928000</v>
+      </c>
+      <c r="E102" s="3">
         <v>22000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>78000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-40000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>130000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-95000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>87000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-42000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,256 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11460000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10022000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10888000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10815000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10884000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10885000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10443000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10193000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9999000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10051000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9773000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10229000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10145000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9850000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9083000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9182000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8709000</v>
+        <v>9653000</v>
       </c>
       <c r="E9" s="3">
+        <v>8394000</v>
+      </c>
+      <c r="F9" s="3">
         <v>9871000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9366000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9745000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9549000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9251000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8838000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8660000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8752000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8753000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8786000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8794000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8648000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8036000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7699000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1313000</v>
+        <v>1807000</v>
       </c>
       <c r="E10" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1017000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1449000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1139000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1336000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1192000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1355000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1339000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1299000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1020000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1443000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1351000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1202000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1047000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1483000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,40 +1044,43 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>223000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>342000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>52000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>8000</v>
       </c>
       <c r="J14" s="3">
         <v>8000</v>
       </c>
       <c r="K14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L14" s="3">
         <v>14000</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10448000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9247000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10387000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9989000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10280000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10049000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9808000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9386000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9180000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9254000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9275000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9307000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9464000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9153000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8512000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8200000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="E18" s="3">
         <v>775000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>501000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>826000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>604000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>836000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>635000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>807000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>819000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>797000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>498000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>922000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>681000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>697000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>571000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>982000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1311,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>14000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>109000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>19000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-15000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1084000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>903000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1133000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>878000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1131000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>920000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1062000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1090000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1048000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>737000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1157000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>892000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>875000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>754000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1147000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E22" s="3">
         <v>122000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>119000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>120000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>123000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>121000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>119000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>99000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>87000</v>
       </c>
       <c r="L22" s="3">
         <v>87000</v>
       </c>
       <c r="M22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="N22" s="3">
         <v>84000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>86000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>94000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>71000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>56000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>58000</v>
       </c>
       <c r="S22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>887000</v>
+      </c>
+      <c r="E23" s="3">
         <v>667000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>491000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>725000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>466000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>724000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>528000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>713000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>757000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>723000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>423000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>842000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>580000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>617000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>519000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>912000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E24" s="3">
         <v>140000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>124000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>164000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>94000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>43000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>98000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>161000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>220000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>182000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>116000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>204000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>185000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>169000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>178000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>318000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>695000</v>
+      </c>
+      <c r="E26" s="3">
         <v>527000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>367000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>561000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>372000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>681000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>430000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>552000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>537000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>541000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>307000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>638000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>395000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>448000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>341000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>594000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E27" s="3">
         <v>527000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>364000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>557000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>369000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>676000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>426000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>551000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>537000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>540000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>306000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>637000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>394000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>447000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>340000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>593000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,20 +1842,20 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>9000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>994000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-14000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-109000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-19000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E33" s="3">
         <v>527000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>364000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>557000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>369000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>676000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>426000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>551000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>537000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>541000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>315000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1631000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>394000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>447000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>340000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>593000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E35" s="3">
         <v>527000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>364000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>557000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>369000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>676000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>426000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>551000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>537000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>541000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>315000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1631000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>394000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>447000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>340000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>593000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1420000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1365000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>437000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>497000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>484000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>406000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>360000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>270000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>170000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>198000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>293000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>318000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>231000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>243000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>307000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2422,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1952000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2064000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2248000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2063000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2173000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2452000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1837000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1892000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1723000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1684000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1594000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1600000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1675000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1710000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1589000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1512000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4144000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3915000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4025000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4304000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4108000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4149000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3899000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3777000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3513000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3378000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3328000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3213000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3239000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3248000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2970000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2767000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E45" s="3">
         <v>355000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>389000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>329000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>404000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>426000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>280000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>232000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>182000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>845000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>870000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>887000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1026000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1099000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>215000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>156000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7883000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7699000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7099000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7193000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7169000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7433000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6376000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6301000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5688000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6077000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5990000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5993000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6258000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6288000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5017000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4742000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2702,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8128000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8055000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8005000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7911000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7282000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7271000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7085000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7018000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6169000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5925000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5755000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5673000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5568000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5545000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5283000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5206000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17673000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17732000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17745000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17837000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17881000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18150000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18241000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18255000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16498000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15903000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15635000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15686000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15567000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15636000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11705000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11733000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1057000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1072000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1041000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>870000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>765000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>811000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>796000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>761000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>754000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>733000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>711000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>694000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>673000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>594000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>591000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>576000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34741000</v>
+      </c>
+      <c r="E54" s="3">
         <v>34558000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33890000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33811000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33097000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33665000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32498000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32335000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29109000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28638000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28091000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28046000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28066000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28063000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22596000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22257000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3140,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1876000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1743000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1742000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1916000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1926000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1958000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1710000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1962000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1694000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1546000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1485000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1748000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1698000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1608000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1466000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1591000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>548000</v>
+      </c>
+      <c r="E58" s="3">
         <v>750000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1142000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1947000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2102000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2125000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1564000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3917000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1911000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1308000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1128000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>811000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>906000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1017000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>543000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>66000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1810000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1780000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1522000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1673000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1485000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1514000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1340000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1551000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1426000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1258000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1225000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1419000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1428000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1240000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1097000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1315000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4234000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4273000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4406000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5536000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5513000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5597000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4614000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7430000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5031000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4112000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3838000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3978000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4032000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3865000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3106000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2972000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11279000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10978000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9772000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9830000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10461000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10810000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8075000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7962000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8852000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8872000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8875000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9297000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9807000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5905000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5901000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4119000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4002000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3912000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3937000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3528000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3466000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3516000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3571000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3305000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3237000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3225000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3219000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4178000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4254000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3796000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3817000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19276000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19700000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19441000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19392000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19015000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19737000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19075000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19208000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16306000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16212000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15955000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16091000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17525000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17946000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12825000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12707000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15311000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14769000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14392000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14178000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13787000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13553000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13012000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12719000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12329000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11913000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11479000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11272000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9776000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9464000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9098000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8837000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15465000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14858000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14449000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14419000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14082000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13928000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13423000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13127000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12803000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12426000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12136000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11955000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10541000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10117000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9771000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9550000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E81" s="3">
         <v>527000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>364000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>557000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>369000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>676000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>426000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>551000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>537000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>541000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>315000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1631000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>394000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>447000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>340000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>593000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E83" s="3">
         <v>295000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>293000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>288000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>289000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>286000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>273000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>250000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>246000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>238000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>230000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>229000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>218000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>187000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>179000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>177000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1448000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>366000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>894000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>978000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>596000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>71000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>868000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1039000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>785000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1126000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1150000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>467000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-152000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1134000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-292000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-312000</v>
       </c>
       <c r="F91" s="3">
         <v>-312000</v>
       </c>
       <c r="G91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-288000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-315000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-338000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-318000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-313000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-328000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-263000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-296000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-287000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-315000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-267000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-266000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-496000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-381000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-129000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-569000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-317000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-483000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-737000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-264000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-422000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-297000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-264000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-214000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,28 +5091,28 @@
         <v>-150000</v>
       </c>
       <c r="E96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-151000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-134000</v>
       </c>
       <c r="H96" s="3">
         <v>-134000</v>
       </c>
       <c r="I96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-135000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-134000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-108000</v>
       </c>
       <c r="M96" s="3">
         <v>-108000</v>
@@ -4888,22 +5121,25 @@
         <v>-108000</v>
       </c>
       <c r="O96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-81000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-79000</v>
       </c>
       <c r="R96" s="3">
         <v>-79000</v>
       </c>
       <c r="S96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5303,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-874000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-255000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>168000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-507000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-761000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>20000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>201000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1711000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-455000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-71000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>153000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-729000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-769000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2908000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>348000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-957000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E102" s="3">
         <v>928000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>78000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-40000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>130000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-95000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>87000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-64000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-42000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10460000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11460000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10022000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10888000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10815000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10884000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10885000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10443000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10193000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9999000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10051000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9773000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10229000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10145000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9850000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9083000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9182000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9163000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9653000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8394000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9871000</v>
       </c>
-      <c r="G9" s="3">
-        <v>9366000</v>
-      </c>
       <c r="H9" s="3">
-        <v>9745000</v>
+        <v>9337000</v>
       </c>
       <c r="I9" s="3">
+        <v>19490000</v>
+      </c>
+      <c r="J9" s="3">
         <v>9549000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9251000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8838000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8660000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8752000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8753000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8786000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8794000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8648000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8036000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7699000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1297000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1807000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1628000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1017000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1449000</v>
-      </c>
       <c r="H10" s="3">
-        <v>1139000</v>
+        <v>1478000</v>
       </c>
       <c r="I10" s="3">
+        <v>-8606000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1336000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1192000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1355000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1339000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1299000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1020000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1443000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1351000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1202000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1047000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1483000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,43 +1063,46 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E14" s="3">
         <v>223000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>342000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>52000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>8000</v>
       </c>
       <c r="K14" s="3">
         <v>8000</v>
       </c>
       <c r="L14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M14" s="3">
         <v>14000</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1103,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10448000</v>
+        <v>9755000</v>
       </c>
       <c r="E17" s="3">
+        <v>10554000</v>
+      </c>
+      <c r="F17" s="3">
         <v>9247000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10387000</v>
       </c>
-      <c r="G17" s="3">
-        <v>9989000</v>
-      </c>
       <c r="H17" s="3">
-        <v>10280000</v>
+        <v>10057000</v>
       </c>
       <c r="I17" s="3">
+        <v>10337000</v>
+      </c>
+      <c r="J17" s="3">
         <v>10049000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9808000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9386000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9180000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9254000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9275000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9307000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9464000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9153000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8512000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8200000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1012000</v>
+        <v>705000</v>
       </c>
       <c r="E18" s="3">
+        <v>906000</v>
+      </c>
+      <c r="F18" s="3">
         <v>775000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>501000</v>
       </c>
-      <c r="G18" s="3">
-        <v>826000</v>
-      </c>
       <c r="H18" s="3">
-        <v>604000</v>
+        <v>758000</v>
       </c>
       <c r="I18" s="3">
+        <v>547000</v>
+      </c>
+      <c r="J18" s="3">
         <v>836000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>635000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>807000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>819000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>797000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>498000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>922000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>681000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>697000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>571000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>982000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,288 +1344,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>109000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>19000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1327000</v>
+        <v>1024000</v>
       </c>
       <c r="E21" s="3">
+        <v>1221000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1084000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>903000</v>
       </c>
-      <c r="G21" s="3">
-        <v>1133000</v>
-      </c>
       <c r="H21" s="3">
-        <v>878000</v>
+        <v>1065000</v>
       </c>
       <c r="I21" s="3">
+        <v>821000</v>
+      </c>
+      <c r="J21" s="3">
         <v>1131000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>920000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1062000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1090000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1048000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>737000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1157000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>892000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>875000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>754000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1147000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E22" s="3">
         <v>124000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>122000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>119000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>120000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>123000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>121000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>119000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>99000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>87000</v>
       </c>
       <c r="M22" s="3">
         <v>87000</v>
       </c>
       <c r="N22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="O22" s="3">
         <v>84000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>86000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>94000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>71000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>56000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>58000</v>
       </c>
       <c r="T22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>887000</v>
+        <v>616000</v>
       </c>
       <c r="E23" s="3">
+        <v>781000</v>
+      </c>
+      <c r="F23" s="3">
         <v>667000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>491000</v>
       </c>
-      <c r="G23" s="3">
-        <v>725000</v>
-      </c>
       <c r="H23" s="3">
-        <v>466000</v>
+        <v>657000</v>
       </c>
       <c r="I23" s="3">
+        <v>409000</v>
+      </c>
+      <c r="J23" s="3">
         <v>724000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>528000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>713000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>757000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>723000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>423000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>842000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>580000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>617000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>519000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>912000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>192000</v>
+        <v>144000</v>
       </c>
       <c r="E24" s="3">
+        <v>165000</v>
+      </c>
+      <c r="F24" s="3">
         <v>140000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>124000</v>
       </c>
-      <c r="G24" s="3">
-        <v>164000</v>
-      </c>
       <c r="H24" s="3">
-        <v>94000</v>
+        <v>148000</v>
       </c>
       <c r="I24" s="3">
+        <v>79000</v>
+      </c>
+      <c r="J24" s="3">
         <v>43000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>98000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>161000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>220000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>182000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>116000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>204000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>185000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>169000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>178000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>318000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>695000</v>
+        <v>472000</v>
       </c>
       <c r="E26" s="3">
+        <v>616000</v>
+      </c>
+      <c r="F26" s="3">
         <v>527000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>367000</v>
       </c>
-      <c r="G26" s="3">
-        <v>561000</v>
-      </c>
       <c r="H26" s="3">
-        <v>372000</v>
+        <v>509000</v>
       </c>
       <c r="I26" s="3">
+        <v>330000</v>
+      </c>
+      <c r="J26" s="3">
         <v>681000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>430000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>552000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>537000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>541000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>307000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>638000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>395000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>448000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>341000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>594000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>692000</v>
+        <v>467000</v>
       </c>
       <c r="E27" s="3">
+        <v>613000</v>
+      </c>
+      <c r="F27" s="3">
         <v>527000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>364000</v>
       </c>
-      <c r="G27" s="3">
-        <v>557000</v>
-      </c>
       <c r="H27" s="3">
-        <v>369000</v>
+        <v>505000</v>
       </c>
       <c r="I27" s="3">
+        <v>327000</v>
+      </c>
+      <c r="J27" s="3">
         <v>676000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>426000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>551000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>537000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>540000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>306000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>637000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>394000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>447000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>340000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>593000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1845,20 +1905,20 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>9000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>994000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-109000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-19000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>692000</v>
+        <v>467000</v>
       </c>
       <c r="E33" s="3">
+        <v>613000</v>
+      </c>
+      <c r="F33" s="3">
         <v>527000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>364000</v>
       </c>
-      <c r="G33" s="3">
-        <v>557000</v>
-      </c>
       <c r="H33" s="3">
-        <v>369000</v>
+        <v>505000</v>
       </c>
       <c r="I33" s="3">
+        <v>327000</v>
+      </c>
+      <c r="J33" s="3">
         <v>676000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>426000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>551000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>537000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>541000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>315000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1631000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>394000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>447000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>340000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>593000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>692000</v>
+        <v>467000</v>
       </c>
       <c r="E35" s="3">
+        <v>613000</v>
+      </c>
+      <c r="F35" s="3">
         <v>527000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>364000</v>
       </c>
-      <c r="G35" s="3">
-        <v>557000</v>
-      </c>
       <c r="H35" s="3">
-        <v>369000</v>
+        <v>505000</v>
       </c>
       <c r="I35" s="3">
+        <v>327000</v>
+      </c>
+      <c r="J35" s="3">
         <v>676000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>426000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>551000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>537000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>541000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>315000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1631000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>394000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>447000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>340000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>593000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1420000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1365000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>437000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>497000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>484000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>406000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>360000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>270000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>170000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>198000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>293000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>318000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>231000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>243000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>307000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,232 +2514,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1952000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2064000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2248000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2063000</v>
       </c>
-      <c r="H43" s="3">
-        <v>2173000</v>
-      </c>
       <c r="I43" s="3">
+        <v>4346000</v>
+      </c>
+      <c r="J43" s="3">
         <v>2452000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1837000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1892000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1723000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1684000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1594000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1600000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1675000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1710000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1589000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1512000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4144000</v>
+        <v>3915000</v>
       </c>
       <c r="E44" s="3">
+        <v>3859000</v>
+      </c>
+      <c r="F44" s="3">
         <v>3915000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4025000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4304000</v>
       </c>
-      <c r="H44" s="3">
-        <v>4108000</v>
-      </c>
       <c r="I44" s="3">
+        <v>3929000</v>
+      </c>
+      <c r="J44" s="3">
         <v>4149000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3899000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3777000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3513000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3378000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3328000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3213000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3239000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3248000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2970000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2767000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E45" s="3">
         <v>367000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>355000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>389000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>329000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>404000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>426000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>280000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>232000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>182000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>845000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>870000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>887000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1026000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1099000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>215000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>156000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7883000</v>
+        <v>8544000</v>
       </c>
       <c r="E46" s="3">
+        <v>7598000</v>
+      </c>
+      <c r="F46" s="3">
         <v>7699000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7099000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7193000</v>
       </c>
-      <c r="H46" s="3">
-        <v>7169000</v>
-      </c>
       <c r="I46" s="3">
+        <v>6990000</v>
+      </c>
+      <c r="J46" s="3">
         <v>7433000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6376000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6301000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5688000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6077000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5990000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5993000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6258000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6288000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5017000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4742000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,120 +2809,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7664000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8128000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8055000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8005000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7911000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7282000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7271000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7085000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7018000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6169000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5925000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5755000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5673000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5568000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5545000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5283000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5206000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17632000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17673000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17732000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17745000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17837000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17881000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18150000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18241000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18255000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16498000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15903000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15635000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15686000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15567000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15636000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11705000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11733000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1057000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1072000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1041000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>870000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>765000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>811000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>796000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>761000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>754000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>733000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>711000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>694000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>673000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>594000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>591000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>576000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34741000</v>
+        <v>35458000</v>
       </c>
       <c r="E54" s="3">
+        <v>34456000</v>
+      </c>
+      <c r="F54" s="3">
         <v>34558000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33890000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33811000</v>
       </c>
-      <c r="H54" s="3">
-        <v>33097000</v>
-      </c>
       <c r="I54" s="3">
+        <v>32918000</v>
+      </c>
+      <c r="J54" s="3">
         <v>33665000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32498000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32335000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29109000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28638000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28091000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28046000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28066000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28063000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22596000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22257000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,232 +3270,245 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1997000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1876000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1743000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1742000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1916000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1926000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1958000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1710000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1962000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1694000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1546000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1485000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1748000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1698000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1608000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1466000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1591000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>566000</v>
+      </c>
+      <c r="E58" s="3">
         <v>548000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>750000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1142000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1947000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2102000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2125000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1564000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3917000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1911000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1308000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1128000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>811000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>906000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1017000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>543000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>66000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2286000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1810000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1780000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1522000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1673000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1485000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1514000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1340000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1551000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1426000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1258000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1225000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1419000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1428000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1240000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1097000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1315000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4849000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4234000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4273000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4406000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5536000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5513000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5597000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4614000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7430000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5031000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4112000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3838000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3978000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4032000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3865000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3106000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2972000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3374,111 +3516,117 @@
         <v>10791000</v>
       </c>
       <c r="E61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="F61" s="3">
         <v>11279000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10978000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9772000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9830000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10461000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10810000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8075000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7962000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8852000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8872000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8875000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9297000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9807000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5905000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5901000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4119000</v>
+        <v>4037000</v>
       </c>
       <c r="E62" s="3">
+        <v>4045000</v>
+      </c>
+      <c r="F62" s="3">
         <v>4002000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3912000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3937000</v>
       </c>
-      <c r="H62" s="3">
-        <v>3528000</v>
-      </c>
       <c r="I62" s="3">
+        <v>3481000</v>
+      </c>
+      <c r="J62" s="3">
         <v>3466000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3516000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3571000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3305000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3237000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3225000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3219000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4178000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4254000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3796000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3817000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19276000</v>
+        <v>19820000</v>
       </c>
       <c r="E66" s="3">
+        <v>19202000</v>
+      </c>
+      <c r="F66" s="3">
         <v>19700000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19441000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19392000</v>
       </c>
-      <c r="H66" s="3">
-        <v>19015000</v>
-      </c>
       <c r="I66" s="3">
+        <v>18968000</v>
+      </c>
+      <c r="J66" s="3">
         <v>19737000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19075000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19208000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16306000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16212000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15955000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16091000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17525000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17946000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12825000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12707000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15311000</v>
+        <v>15399000</v>
       </c>
       <c r="E72" s="3">
+        <v>15100000</v>
+      </c>
+      <c r="F72" s="3">
         <v>14769000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14392000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14178000</v>
       </c>
-      <c r="H72" s="3">
-        <v>13787000</v>
-      </c>
       <c r="I72" s="3">
+        <v>13655000</v>
+      </c>
+      <c r="J72" s="3">
         <v>13553000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13012000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12719000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12329000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11913000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11479000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11272000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9776000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9464000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9098000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8837000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15465000</v>
+        <v>15638000</v>
       </c>
       <c r="E76" s="3">
+        <v>15254000</v>
+      </c>
+      <c r="F76" s="3">
         <v>14858000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14449000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14419000</v>
       </c>
-      <c r="H76" s="3">
-        <v>14082000</v>
-      </c>
       <c r="I76" s="3">
+        <v>13950000</v>
+      </c>
+      <c r="J76" s="3">
         <v>13928000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13423000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13127000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12803000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12426000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12136000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11955000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10541000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10117000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9771000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9550000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>692000</v>
+        <v>467000</v>
       </c>
       <c r="E81" s="3">
+        <v>613000</v>
+      </c>
+      <c r="F81" s="3">
         <v>527000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>364000</v>
       </c>
-      <c r="G81" s="3">
-        <v>557000</v>
-      </c>
       <c r="H81" s="3">
-        <v>369000</v>
+        <v>505000</v>
       </c>
       <c r="I81" s="3">
+        <v>327000</v>
+      </c>
+      <c r="J81" s="3">
         <v>676000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>426000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>551000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>537000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>541000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>315000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1631000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>394000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>447000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>340000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>593000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E83" s="3">
         <v>316000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>295000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>293000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>288000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>289000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>286000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>273000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>250000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>246000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>238000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>230000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>229000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>218000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>187000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>179000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>177000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1385000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1166000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1448000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>366000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>894000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>978000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>596000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>71000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>868000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1039000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>785000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1126000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1150000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>467000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-152000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1134000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-292000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-312000</v>
       </c>
       <c r="G91" s="3">
         <v>-312000</v>
       </c>
       <c r="H91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-288000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-315000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-338000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-318000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-313000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-328000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-263000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-296000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-287000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-315000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-267000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-259000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-280000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-266000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-496000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-381000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-129000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-569000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-317000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-483000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-737000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-264000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-422000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-297000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-264000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-214000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,40 +5314,41 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-150000</v>
+        <v>-159000</v>
       </c>
       <c r="E96" s="3">
         <v>-150000</v>
       </c>
       <c r="F96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-151000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-134000</v>
       </c>
       <c r="I96" s="3">
         <v>-134000</v>
       </c>
       <c r="J96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-135000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-134000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-108000</v>
       </c>
       <c r="N96" s="3">
         <v>-108000</v>
@@ -5124,22 +5357,25 @@
         <v>-108000</v>
       </c>
       <c r="P96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-81000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-79000</v>
       </c>
       <c r="S96" s="3">
         <v>-79000</v>
       </c>
       <c r="T96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-173000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-874000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-255000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>168000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-507000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-761000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>20000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>201000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1711000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-455000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-71000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>153000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-729000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-769000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2908000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>348000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-957000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-10000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>969000</v>
+      </c>
+      <c r="E102" s="3">
         <v>19000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>928000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>78000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-40000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>130000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-28000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-95000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>87000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-64000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-42000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,280 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11300000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10460000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11460000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10022000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10888000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10815000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10884000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10885000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10443000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10193000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9999000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10051000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9773000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10229000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10145000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9850000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9083000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9182000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9952000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9163000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9653000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8394000</v>
       </c>
-      <c r="G9" s="3">
-        <v>9871000</v>
-      </c>
       <c r="H9" s="3">
+        <v>9966000</v>
+      </c>
+      <c r="I9" s="3">
         <v>9337000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19490000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9549000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9251000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8838000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8660000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8752000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8753000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8786000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8794000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8648000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8036000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7699000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1348000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1297000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1807000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1628000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1017000</v>
-      </c>
       <c r="H10" s="3">
+        <v>922000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1478000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-8606000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1336000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1192000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1355000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1339000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1299000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1020000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1443000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1351000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1202000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1047000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1483000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,8 +960,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,46 +1082,49 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E14" s="3">
         <v>120000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>223000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>342000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>52000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>8000</v>
       </c>
       <c r="L14" s="3">
         <v>8000</v>
       </c>
       <c r="M14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N14" s="3">
         <v>14000</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1125,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1229,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10580000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9755000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10554000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9247000</v>
       </c>
-      <c r="G17" s="3">
-        <v>10387000</v>
-      </c>
       <c r="H17" s="3">
+        <v>10373000</v>
+      </c>
+      <c r="I17" s="3">
         <v>10057000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10337000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10049000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9808000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9386000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9180000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9254000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9275000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9307000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9464000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9153000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8512000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8200000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>720000</v>
+      </c>
+      <c r="E18" s="3">
         <v>705000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>906000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>775000</v>
       </c>
-      <c r="G18" s="3">
-        <v>501000</v>
-      </c>
       <c r="H18" s="3">
+        <v>515000</v>
+      </c>
+      <c r="I18" s="3">
         <v>758000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>547000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>836000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>635000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>807000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>819000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>797000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>498000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>922000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>681000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>697000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>571000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>982000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,126 +1377,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>21000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>109000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1040000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1024000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1221000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1084000</v>
       </c>
-      <c r="G21" s="3">
-        <v>903000</v>
-      </c>
       <c r="H21" s="3">
+        <v>917000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1065000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>821000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1131000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>920000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1062000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1090000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1048000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>737000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1157000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>892000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>875000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>754000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1147000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1472,176 +1511,185 @@
         <v>110000</v>
       </c>
       <c r="E22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F22" s="3">
         <v>124000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>122000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>119000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>120000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>123000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>121000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>119000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>99000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>87000</v>
       </c>
       <c r="N22" s="3">
         <v>87000</v>
       </c>
       <c r="O22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="P22" s="3">
         <v>84000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>86000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>94000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>71000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>56000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>58000</v>
       </c>
       <c r="U22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E23" s="3">
         <v>616000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>781000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>667000</v>
       </c>
-      <c r="G23" s="3">
-        <v>491000</v>
-      </c>
       <c r="H23" s="3">
+        <v>505000</v>
+      </c>
+      <c r="I23" s="3">
         <v>657000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>409000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>724000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>528000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>713000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>757000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>723000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>423000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>842000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>580000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>617000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>519000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>912000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E24" s="3">
         <v>144000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>165000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>140000</v>
       </c>
-      <c r="G24" s="3">
-        <v>124000</v>
-      </c>
       <c r="H24" s="3">
+        <v>126000</v>
+      </c>
+      <c r="I24" s="3">
         <v>148000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>79000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>43000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>98000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>161000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>220000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>182000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>116000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>204000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>185000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>169000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>178000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>318000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1747,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>477000</v>
+      </c>
+      <c r="E26" s="3">
         <v>472000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>616000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>527000</v>
       </c>
-      <c r="G26" s="3">
-        <v>367000</v>
-      </c>
       <c r="H26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="I26" s="3">
         <v>509000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>330000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>681000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>430000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>552000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>537000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>541000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>307000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>638000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>395000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>448000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>341000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>594000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E27" s="3">
         <v>467000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>613000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>527000</v>
       </c>
-      <c r="G27" s="3">
-        <v>364000</v>
-      </c>
       <c r="H27" s="3">
+        <v>376000</v>
+      </c>
+      <c r="I27" s="3">
         <v>505000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>327000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>676000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>426000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>551000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>537000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>540000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>306000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>637000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>394000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>447000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>340000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>593000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1908,20 +1968,20 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>9000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>994000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1935,8 +1995,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2119,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-21000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-109000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E33" s="3">
         <v>467000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>613000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>527000</v>
       </c>
-      <c r="G33" s="3">
-        <v>364000</v>
-      </c>
       <c r="H33" s="3">
+        <v>376000</v>
+      </c>
+      <c r="I33" s="3">
         <v>505000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>327000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>676000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>426000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>551000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>537000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>541000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>315000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1631000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>394000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>447000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>340000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>593000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2305,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E35" s="3">
         <v>467000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>613000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>527000</v>
       </c>
-      <c r="G35" s="3">
-        <v>364000</v>
-      </c>
       <c r="H35" s="3">
+        <v>376000</v>
+      </c>
+      <c r="I35" s="3">
         <v>505000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>327000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>676000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>426000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>551000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>537000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>541000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>315000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1631000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>394000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>447000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>340000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>593000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2484,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>877000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2406000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1420000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1365000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>437000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>497000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>484000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>406000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>360000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>270000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>170000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>198000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>293000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>318000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>231000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>243000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>307000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,244 +2606,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2113000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1952000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2064000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2248000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2063000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4346000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2452000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1837000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1892000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1723000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1684000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1594000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1600000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1675000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1710000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1589000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1512000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4128000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3915000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3859000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3915000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4025000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4304000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3929000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4149000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3899000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3777000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3513000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3378000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3328000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3213000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3239000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3248000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2970000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2767000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E45" s="3">
         <v>323000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>367000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>355000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>389000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>329000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>404000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>426000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>280000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>232000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>182000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>845000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>870000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>887000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1026000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1099000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>215000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>156000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8014000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8544000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7598000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7699000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7099000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7193000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6990000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7433000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6376000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6301000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5688000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6077000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5990000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5993000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6258000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6288000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5017000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4742000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,126 +2916,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7661000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7664000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8128000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8055000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8005000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7911000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7282000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7271000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7085000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7018000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6169000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5925000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5755000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5673000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5568000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5545000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5283000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5206000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17204000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17632000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17673000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17732000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17745000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17837000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17881000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18150000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18241000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18255000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16498000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15903000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15635000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15686000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15567000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15636000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11705000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11733000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3164,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1595000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1618000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1057000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1072000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1041000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>870000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>765000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>811000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>796000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>761000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>754000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>733000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>711000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>694000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>673000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>594000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>591000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>576000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3288,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34474000</v>
+      </c>
+      <c r="E54" s="3">
         <v>35458000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34456000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34558000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33890000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33811000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32918000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33665000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32498000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32335000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29109000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28638000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28091000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28046000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28066000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28063000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22596000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22257000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,362 +3400,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1997000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1876000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1743000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1742000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1916000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1926000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1958000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1710000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1962000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1694000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1546000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1485000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1748000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1698000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1608000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1466000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1591000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E58" s="3">
         <v>566000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>548000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>750000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1142000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1947000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2102000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2125000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1564000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3917000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1911000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1308000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1128000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>811000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>906000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1017000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>543000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>66000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2132000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2286000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1810000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1780000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1522000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1673000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1485000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1514000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1340000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1551000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1426000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1258000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1225000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1419000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1428000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1240000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1097000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1315000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4612000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4849000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4234000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4273000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4406000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5536000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5513000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5597000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4614000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7430000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5031000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4112000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3838000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3978000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4032000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3865000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3106000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2972000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10791000</v>
+        <v>9784000</v>
       </c>
       <c r="E61" s="3">
         <v>10791000</v>
       </c>
       <c r="F61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="G61" s="3">
         <v>11279000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10978000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9772000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9830000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10461000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10810000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8075000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7962000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8852000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8872000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8875000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9297000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9807000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5905000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5901000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4008000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4037000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4045000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4002000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3912000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3937000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3481000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3466000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3516000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3571000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3305000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3237000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3225000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3219000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4178000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4254000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3796000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3817000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3956,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18543000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19820000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19202000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19700000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19441000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19392000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18968000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19737000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19075000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19208000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16306000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16212000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15955000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16091000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17525000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17946000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12825000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12707000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4290,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15716000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15399000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15100000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14769000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14392000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14178000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13655000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13553000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13012000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12719000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12329000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11913000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11479000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11272000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9776000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9464000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9098000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8837000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4538,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15931000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15638000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15254000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14858000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14449000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14419000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13950000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13928000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13423000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13127000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12803000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12426000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12136000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11955000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10541000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10117000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9771000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9550000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4662,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E81" s="3">
         <v>467000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>613000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>527000</v>
       </c>
-      <c r="G81" s="3">
-        <v>364000</v>
-      </c>
       <c r="H81" s="3">
+        <v>376000</v>
+      </c>
+      <c r="I81" s="3">
         <v>505000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>327000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>676000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>426000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>551000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>537000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>541000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>315000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1631000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>394000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>447000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>340000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>593000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4817,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E83" s="3">
         <v>298000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>316000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>295000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>293000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>288000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>289000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>286000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>273000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>250000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>246000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>238000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>230000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>229000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>218000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>187000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>179000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>177000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5187,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1385000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1166000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1448000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>366000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>894000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>978000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>596000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>71000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>868000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1039000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>785000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1126000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1150000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>467000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-152000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1134000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5275,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-289000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-292000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-312000</v>
       </c>
       <c r="H91" s="3">
         <v>-312000</v>
       </c>
       <c r="I91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-288000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-315000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-338000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-318000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-313000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-328000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-263000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-296000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-287000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-315000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-267000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5459,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-259000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-280000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-266000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-496000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-381000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-129000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-569000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-317000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-483000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-737000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-264000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-422000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-297000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-264000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-214000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5324,34 +5557,34 @@
         <v>-159000</v>
       </c>
       <c r="E96" s="3">
-        <v>-150000</v>
+        <v>-159000</v>
       </c>
       <c r="F96" s="3">
         <v>-150000</v>
       </c>
       <c r="G96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-151000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-134000</v>
       </c>
       <c r="J96" s="3">
         <v>-134000</v>
       </c>
       <c r="K96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-135000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-134000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-108000</v>
       </c>
       <c r="O96" s="3">
         <v>-108000</v>
@@ -5360,22 +5593,25 @@
         <v>-108000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-81000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-79000</v>
       </c>
       <c r="T96" s="3">
         <v>-79000</v>
       </c>
       <c r="U96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,181 +5793,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1172000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-173000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-874000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-255000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>168000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-507000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-761000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>201000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1711000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-455000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-71000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>153000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-729000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-769000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2908000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>348000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-957000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1463000</v>
+      </c>
+      <c r="E102" s="3">
         <v>969000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>928000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>78000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>130000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-95000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>87000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-64000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-42000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,280 +665,292 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12478000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11300000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10460000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11460000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10022000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10888000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10815000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10884000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10885000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10443000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10193000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9999000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10051000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9773000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10229000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10145000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9850000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9083000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9182000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10803000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9952000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9163000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9653000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8394000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9966000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9337000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19490000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9549000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9251000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8838000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8660000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8752000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8753000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8786000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8794000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8648000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8036000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7699000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1675000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1348000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1297000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1807000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1628000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>922000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1478000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-8606000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1336000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1192000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1355000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1339000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1299000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1020000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1443000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1351000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1202000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1047000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1483000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,8 +973,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1023,8 +1036,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,49 +1101,52 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E14" s="3">
         <v>95000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>120000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>223000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>342000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>52000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>8000</v>
       </c>
       <c r="M14" s="3">
         <v>8000</v>
       </c>
       <c r="N14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O14" s="3">
         <v>14000</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1147,8 +1166,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1231,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11416000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10580000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9755000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10554000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9247000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10373000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10057000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10337000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10049000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9808000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9386000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9180000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9254000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9275000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9307000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9464000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9153000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8512000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8200000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E18" s="3">
         <v>720000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>705000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>906000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>775000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>515000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>758000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>547000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>836000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>635000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>807000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>819000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>797000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>498000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>922000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>681000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>697000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>571000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>982000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,318 +1410,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>14000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>21000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>109000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>19000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>13000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1040000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1024000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1221000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1084000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>917000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1065000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>821000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1131000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>920000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1062000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1090000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1048000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>737000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1157000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>892000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>875000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>754000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1147000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>110000</v>
+        <v>105000</v>
       </c>
       <c r="E22" s="3">
         <v>110000</v>
       </c>
       <c r="F22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="G22" s="3">
         <v>124000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>122000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>119000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>120000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>123000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>121000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>119000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>99000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>87000</v>
       </c>
       <c r="O22" s="3">
         <v>87000</v>
       </c>
       <c r="P22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>84000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>86000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>94000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>71000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>56000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>58000</v>
       </c>
       <c r="V22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>966000</v>
+      </c>
+      <c r="E23" s="3">
         <v>624000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>616000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>781000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>667000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>505000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>657000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>409000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>724000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>528000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>713000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>757000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>723000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>423000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>842000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>580000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>617000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>519000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>912000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E24" s="3">
         <v>147000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>144000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>165000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>140000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>126000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>148000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>79000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>43000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>98000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>161000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>220000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>182000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>116000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>204000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>185000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>169000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>178000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>318000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E26" s="3">
         <v>477000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>472000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>616000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>527000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>379000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>509000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>330000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>681000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>430000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>552000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>537000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>541000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>307000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>638000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>395000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>448000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>341000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>594000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E27" s="3">
         <v>476000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>467000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>613000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>527000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>376000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>505000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>327000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>676000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>426000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>551000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>537000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>540000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>306000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>637000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>394000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>447000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>340000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>593000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1993,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1971,20 +2031,20 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>9000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>994000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1998,8 +2058,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,132 +2188,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-14000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-21000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-109000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-19000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-13000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E33" s="3">
         <v>476000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>467000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>613000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>527000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>376000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>505000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>327000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>676000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>426000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>551000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>537000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>541000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>315000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1631000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>394000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>447000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>340000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>593000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E35" s="3">
         <v>476000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>467000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>613000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>527000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>376000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>505000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>327000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>676000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>426000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>551000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>537000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>541000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>315000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1631000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>394000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>447000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>340000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>593000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,70 +2570,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="E41" s="3">
         <v>877000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2406000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1420000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1365000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>437000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>497000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>484000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>406000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>360000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>270000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>170000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>198000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>293000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>318000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>231000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>243000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>307000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,256 +2698,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2324000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2113000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1952000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2064000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2248000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2063000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4346000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2452000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1837000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1892000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1723000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1684000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1594000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1600000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1675000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1710000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1589000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1512000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4262000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4128000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3915000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3859000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3915000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4025000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4304000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3929000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4149000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3899000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3777000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3513000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3378000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3328000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3213000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3239000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3248000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2970000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2767000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1009000</v>
+      </c>
+      <c r="E45" s="3">
         <v>896000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>323000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>367000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>355000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>389000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>329000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>404000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>426000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>280000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>232000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>182000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>845000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>870000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>887000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1026000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1099000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>215000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>156000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9208000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8014000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8544000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7598000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7699000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7099000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7193000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6990000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7433000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6376000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6301000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5688000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6077000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5990000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5993000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6258000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6288000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5017000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4742000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2919,132 +3023,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7725000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7661000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7664000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8128000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8055000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8005000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7911000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7282000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7271000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7085000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7018000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6169000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5925000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5755000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5673000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5568000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5545000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5283000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5206000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17141000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17204000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17632000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17673000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17732000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17745000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17837000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17881000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18150000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18241000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18255000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16498000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15903000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15635000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15686000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15567000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15636000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11705000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11733000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,70 +3283,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1589000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1595000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1618000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1057000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1072000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1041000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>870000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>765000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>811000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>796000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>761000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>754000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>733000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>711000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>694000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>673000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>594000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>591000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>576000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35663000</v>
+      </c>
+      <c r="E54" s="3">
         <v>34474000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35458000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34456000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34558000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33890000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33811000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32918000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33665000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32498000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32335000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29109000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28638000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28091000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28046000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28066000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28063000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22596000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22257000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,380 +3530,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1950000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1997000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1876000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1743000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1742000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1916000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1926000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1958000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1710000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1962000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1694000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1546000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1485000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1748000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1698000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1608000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1466000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1591000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1566000</v>
+      </c>
+      <c r="E58" s="3">
         <v>580000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>566000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>548000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>750000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1142000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1947000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2102000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2125000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1564000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3917000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1911000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1308000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1128000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>811000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>906000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1017000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>543000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>66000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2668000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2132000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2286000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1810000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1780000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1522000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1673000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1485000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1514000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1340000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1551000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1426000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1258000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1225000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1419000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1428000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1240000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1097000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1315000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6184000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4612000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4849000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4234000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4273000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4406000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5536000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5513000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5597000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4614000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7430000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5031000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4112000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3838000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3978000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4032000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3865000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3106000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2972000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8786000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9784000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>10791000</v>
       </c>
       <c r="F61" s="3">
         <v>10791000</v>
       </c>
       <c r="G61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="H61" s="3">
         <v>11279000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10978000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9772000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9830000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10461000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10810000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8075000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7962000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8852000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8872000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8875000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9297000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9807000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5905000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5901000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4008000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4037000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4045000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4002000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3912000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3937000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3481000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3466000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3516000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3571000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3305000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3237000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3225000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3219000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4178000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4254000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3796000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3817000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19102000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18543000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19820000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19202000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19700000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19441000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19392000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18968000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19737000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19075000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19208000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16306000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16212000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15955000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16091000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17525000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17946000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12825000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12707000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16305000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15716000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15399000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15100000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14769000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14392000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14178000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13655000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13553000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13012000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12719000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12329000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11913000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11479000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11272000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9776000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9464000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9098000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8837000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16561000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15931000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15638000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15254000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14858000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14449000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14419000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13950000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13928000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13423000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13127000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12803000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12426000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12136000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11955000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10541000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10117000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9771000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9550000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E81" s="3">
         <v>476000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>467000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>613000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>527000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>376000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>505000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>327000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>676000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>426000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>551000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>537000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>541000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>315000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1631000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>394000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>447000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>340000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>593000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E83" s="3">
         <v>306000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>298000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>316000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>295000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>293000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>288000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>289000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>286000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>273000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>250000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>246000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>238000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>230000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>229000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>218000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>187000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>179000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>177000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1385000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1166000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1448000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>366000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>894000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>978000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>596000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>71000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>868000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1039000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>785000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1126000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1150000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>467000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-152000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1134000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,70 +5495,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-302000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-268000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-289000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-292000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-312000</v>
       </c>
       <c r="I91" s="3">
         <v>-312000</v>
       </c>
       <c r="J91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-288000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-315000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-338000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-318000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-313000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-328000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-263000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-296000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-287000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-315000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-267000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-249000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-259000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-280000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-266000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-496000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-381000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-129000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-569000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-317000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-483000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-737000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-264000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-422000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-297000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-264000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-214000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5780,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5560,34 +5793,34 @@
         <v>-159000</v>
       </c>
       <c r="F96" s="3">
-        <v>-150000</v>
+        <v>-159000</v>
       </c>
       <c r="G96" s="3">
         <v>-150000</v>
       </c>
       <c r="H96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-151000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-134000</v>
       </c>
       <c r="K96" s="3">
         <v>-134000</v>
       </c>
       <c r="L96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-135000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-134000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-108000</v>
       </c>
       <c r="P96" s="3">
         <v>-108000</v>
@@ -5596,22 +5829,25 @@
         <v>-108000</v>
       </c>
       <c r="R96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-81000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-79000</v>
       </c>
       <c r="U96" s="3">
         <v>-79000</v>
       </c>
       <c r="V96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,190 +6038,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-173000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-874000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-255000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>168000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-507000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-761000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>20000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>201000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1711000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-455000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-71000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>153000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-729000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-769000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2908000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>348000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-957000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1463000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>969000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>928000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>78000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>130000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-28000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-95000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>87000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-12000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-64000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-42000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,292 +665,304 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44107</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12811000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12478000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11300000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10460000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11460000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10022000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10888000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10815000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10884000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10885000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10443000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10193000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9999000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10051000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9773000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10229000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10145000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9850000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9083000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9182000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10270000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10803000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9952000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9163000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9653000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8394000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9966000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9337000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19490000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9549000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9251000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8838000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8660000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8752000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8753000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8786000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8794000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8648000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8036000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7699000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2541000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1675000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1348000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1297000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1807000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1628000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>922000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1478000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-8606000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1336000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1192000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1355000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1339000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1299000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1020000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1443000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1351000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1202000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1047000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1483000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +986,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1039,8 +1052,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,52 +1120,55 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E14" s="3">
         <v>55000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>95000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>120000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>223000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>342000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>52000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>8000</v>
       </c>
       <c r="N14" s="3">
         <v>8000</v>
       </c>
       <c r="O14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P14" s="3">
         <v>14000</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1169,8 +1188,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1234,8 +1256,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1281,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10902000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11416000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10580000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9755000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10554000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9247000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10373000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10057000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10337000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10049000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9808000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9386000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9180000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9254000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9275000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9307000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9464000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9153000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8512000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8200000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1909000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1062000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>720000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>705000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>906000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>775000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>515000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>758000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>547000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>836000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>635000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>807000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>819000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>797000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>498000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>922000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>681000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>697000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>571000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>982000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1411,333 +1443,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E20" s="3">
         <v>9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>21000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>109000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2246000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1373000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1040000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1024000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1221000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1084000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>917000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1065000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>821000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1131000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>920000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1062000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1090000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1048000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>737000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1157000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>892000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>875000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>754000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1147000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E22" s="3">
         <v>105000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>110000</v>
       </c>
       <c r="F22" s="3">
         <v>110000</v>
       </c>
       <c r="G22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="H22" s="3">
         <v>124000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>122000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>119000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>120000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>123000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>121000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>119000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>99000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>87000</v>
       </c>
       <c r="P22" s="3">
         <v>87000</v>
       </c>
       <c r="Q22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="R22" s="3">
         <v>84000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>86000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>94000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>71000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>56000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>58000</v>
       </c>
       <c r="W22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1835000</v>
+      </c>
+      <c r="E23" s="3">
         <v>966000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>624000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>616000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>781000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>667000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>505000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>657000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>409000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>724000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>528000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>713000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>757000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>723000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>423000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>842000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>580000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>617000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>519000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>912000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>477000</v>
+      </c>
+      <c r="E24" s="3">
         <v>213000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>147000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>144000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>165000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>140000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>126000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>148000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>79000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>43000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>98000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>161000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>220000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>182000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>116000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>204000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>185000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>169000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>178000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>318000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1801,138 +1849,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1358000</v>
+      </c>
+      <c r="E26" s="3">
         <v>753000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>477000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>472000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>616000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>527000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>379000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>509000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>330000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>681000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>430000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>552000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>537000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>541000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>307000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>638000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>395000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>448000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>341000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>594000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1355000</v>
+      </c>
+      <c r="E27" s="3">
         <v>749000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>476000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>467000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>613000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>527000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>376000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>505000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>327000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>676000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>426000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>551000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>537000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>540000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>306000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>637000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>394000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>447000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>340000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>593000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1996,31 +2053,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2034,20 +2094,20 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>9000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>994000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2061,8 +2121,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2126,8 +2189,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2191,138 +2257,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-21000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-109000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1355000</v>
+      </c>
+      <c r="E33" s="3">
         <v>749000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>476000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>467000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>613000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>527000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>376000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>505000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>327000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>676000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>426000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>551000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>537000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>541000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>315000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1631000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>394000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>447000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>340000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>593000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2386,143 +2461,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1355000</v>
+      </c>
+      <c r="E35" s="3">
         <v>749000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>476000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>467000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>613000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>527000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>376000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>505000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>327000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>676000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>426000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>551000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>537000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>541000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>315000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1631000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>394000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>447000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>340000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>593000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44107</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2546,8 +2630,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2571,73 +2656,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2507000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1613000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>877000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2406000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1420000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1365000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>437000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>497000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>484000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>406000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>360000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>270000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>170000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>198000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>293000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>318000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>231000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>243000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>307000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2701,268 +2790,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2324000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2113000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1952000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2064000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2248000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2063000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4346000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2452000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1837000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1892000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1723000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1684000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1594000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1600000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1675000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1710000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1589000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1512000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4382000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4262000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4128000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3915000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3859000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3915000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4025000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4304000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3929000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4149000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3899000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3777000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3513000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3378000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3328000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3213000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3239000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3248000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2970000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2767000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1009000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>896000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>323000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>367000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>355000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>389000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>329000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>404000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>426000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>280000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>232000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>182000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>845000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>870000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>887000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1026000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1099000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>215000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>156000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9822000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9208000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8014000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8544000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7598000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7699000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7099000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7193000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6990000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7433000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6376000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6301000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5688000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6077000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5990000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5993000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6258000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6288000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5017000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4742000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3026,138 +3130,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7837000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7725000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7661000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7664000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8128000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8055000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8005000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7911000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7282000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7271000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7085000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7018000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6169000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5925000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5755000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5673000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5568000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5545000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5283000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5206000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17068000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17141000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17204000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17632000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17673000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17732000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17745000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17837000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17881000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18150000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18241000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18255000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16498000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15903000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15635000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15686000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15567000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15636000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11705000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11733000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3221,8 +3334,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3286,73 +3402,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1582000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1589000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1595000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1618000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1057000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1072000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1041000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>870000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>765000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>811000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>796000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>761000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>754000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>733000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>711000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>694000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>673000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>594000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>591000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>576000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3416,73 +3538,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36309000</v>
+      </c>
+      <c r="E54" s="3">
         <v>35663000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34474000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35458000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34456000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34558000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33890000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33811000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32918000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33665000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32498000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32335000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29109000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28638000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28091000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28046000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28066000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28063000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22596000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22257000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3506,8 +3634,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3531,398 +3660,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2225000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1950000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1997000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1876000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1743000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1742000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1916000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1926000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1958000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1710000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1962000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1694000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1546000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1485000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1748000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1698000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1608000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1466000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1591000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1566000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>580000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>566000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>548000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>750000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1142000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1947000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2102000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2125000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1564000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3917000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1911000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1308000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1128000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>811000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>906000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1017000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>543000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>66000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3033000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2668000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2132000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2286000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1810000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1780000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1522000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1673000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1485000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1514000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1340000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1551000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1426000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1258000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1225000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1419000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1428000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1240000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1097000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1315000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6325000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6184000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4612000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4849000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4234000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4273000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4406000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5536000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5513000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5597000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4614000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7430000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5031000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4112000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3838000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3978000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4032000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3865000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3106000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2972000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8281000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8786000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9784000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>10791000</v>
       </c>
       <c r="G61" s="3">
         <v>10791000</v>
       </c>
       <c r="H61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="I61" s="3">
         <v>11279000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10978000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9772000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9830000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10461000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10810000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8075000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7962000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8852000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8872000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8875000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9297000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9807000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5905000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5901000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3849000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4000000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4008000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4037000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4045000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4002000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3912000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3937000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3481000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3466000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3516000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3571000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3305000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3237000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3225000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3219000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4178000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4254000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3796000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3817000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3986,8 +4134,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4051,8 +4202,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4116,73 +4270,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18586000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19102000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18543000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19820000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19202000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19700000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19441000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19392000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18968000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19737000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19075000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19208000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16306000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16212000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15955000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16091000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17525000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17946000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12825000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12707000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4206,8 +4366,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4271,8 +4432,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4336,8 +4500,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4401,8 +4568,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4466,73 +4636,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17502000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16305000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15716000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15399000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15100000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14769000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14392000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14178000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13655000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13553000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13012000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12719000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12329000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11913000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11479000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11272000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9776000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9464000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9098000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8837000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4596,8 +4772,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4661,8 +4840,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4726,73 +4908,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17723000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16561000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15931000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15638000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15254000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14858000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14449000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14419000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13950000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13928000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13423000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13127000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12803000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12426000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12136000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11955000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10541000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10117000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9771000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9550000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4856,143 +5044,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44107</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1355000</v>
+      </c>
+      <c r="E81" s="3">
         <v>749000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>476000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>467000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>613000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>527000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>376000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>505000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>327000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>676000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>426000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>551000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>537000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>541000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>315000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1631000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>394000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>447000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>340000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>593000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5016,73 +5213,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E83" s="3">
         <v>302000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>306000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>298000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>316000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>295000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>293000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>288000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>289000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>286000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>273000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>250000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>246000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>238000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>230000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>229000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>218000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>187000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>179000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>177000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5146,8 +5347,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5211,8 +5415,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5276,8 +5483,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5341,8 +5551,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5406,73 +5619,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1184000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1307000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-36000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1385000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1166000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1448000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>366000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>894000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>978000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>596000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>71000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>868000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1039000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>785000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1126000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1150000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>467000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-152000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1134000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5496,73 +5715,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-350000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-302000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-268000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-289000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-292000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-312000</v>
       </c>
       <c r="J91" s="3">
         <v>-312000</v>
       </c>
       <c r="K91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-288000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-315000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-338000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-318000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-313000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-328000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-263000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-296000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-287000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-315000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-267000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5626,8 +5849,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5691,73 +5917,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-275000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-249000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-259000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-280000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-266000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-496000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-381000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-129000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-569000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-317000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-483000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-737000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-264000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-422000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-297000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-264000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-214000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5781,8 +6013,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5796,34 +6029,34 @@
         <v>-159000</v>
       </c>
       <c r="G96" s="3">
-        <v>-150000</v>
+        <v>-159000</v>
       </c>
       <c r="H96" s="3">
         <v>-150000</v>
       </c>
       <c r="I96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-151000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-134000</v>
       </c>
       <c r="L96" s="3">
         <v>-134000</v>
       </c>
       <c r="M96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-135000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-134000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-108000</v>
       </c>
       <c r="Q96" s="3">
         <v>-108000</v>
@@ -5832,22 +6065,25 @@
         <v>-108000</v>
       </c>
       <c r="S96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-81000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-79000</v>
       </c>
       <c r="V96" s="3">
         <v>-79000</v>
       </c>
       <c r="W96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5911,8 +6147,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5976,8 +6215,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6041,199 +6283,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1189000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-197000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-173000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-874000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-255000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>168000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-507000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-761000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>20000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>201000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1711000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-455000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>153000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-729000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-769000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2908000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>348000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-957000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>829000</v>
+      </c>
+      <c r="E102" s="3">
         <v>836000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1463000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>969000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>928000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>78000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>46000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-40000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>130000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-95000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>87000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-64000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-42000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,304 +665,316 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44107</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12933000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12811000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12478000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11300000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10460000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11460000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10022000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10888000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10815000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10884000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10885000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10443000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10193000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9999000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10051000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9773000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10229000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10145000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9850000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9083000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9182000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10918000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10270000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10803000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9952000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9163000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9653000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8394000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9966000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9337000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19490000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9549000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9251000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8838000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8660000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8752000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8753000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8786000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8794000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8648000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8036000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7699000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2015000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2541000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1675000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1348000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1297000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1807000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1628000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>922000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1478000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-8606000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1336000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1192000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1355000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1339000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1299000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1020000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1443000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1351000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1202000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1047000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1483000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,8 +999,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1055,8 +1068,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1123,55 +1139,58 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>65000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>55000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>95000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>120000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>223000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>342000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>52000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>8000</v>
       </c>
       <c r="O14" s="3">
         <v>8000</v>
       </c>
       <c r="P14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q14" s="3">
         <v>14000</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1191,8 +1210,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,8 +1281,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1282,144 +1307,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11478000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10902000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11416000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10580000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9755000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10554000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9247000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10373000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10057000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10337000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10049000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9808000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9386000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9180000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9254000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9275000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9307000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9464000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9153000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8512000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8200000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1909000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1062000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>720000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>705000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>906000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>775000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>515000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>758000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>547000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>836000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>635000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>807000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>819000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>797000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>498000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>922000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>681000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>697000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>571000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>982000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1444,348 +1476,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E20" s="3">
         <v>29000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>21000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>109000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-12000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1810000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2246000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1373000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1040000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1024000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1221000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1084000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>917000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1065000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>821000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1131000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>920000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1062000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1090000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1048000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>737000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1157000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>892000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>875000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>754000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1147000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E22" s="3">
         <v>103000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>105000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>110000</v>
       </c>
       <c r="G22" s="3">
         <v>110000</v>
       </c>
       <c r="H22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I22" s="3">
         <v>124000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>122000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>119000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>120000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>123000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>121000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>119000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>99000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>87000</v>
       </c>
       <c r="Q22" s="3">
         <v>87000</v>
       </c>
       <c r="R22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="S22" s="3">
         <v>84000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>86000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>94000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>71000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>56000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>58000</v>
       </c>
       <c r="X22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1835000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>966000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>624000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>616000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>781000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>667000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>505000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>657000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>409000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>724000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>528000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>713000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>757000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>723000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>423000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>842000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>580000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>617000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>519000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>912000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E24" s="3">
         <v>477000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>213000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>147000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>144000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>165000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>140000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>126000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>148000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>79000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>43000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>98000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>161000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>220000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>182000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>116000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>204000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>185000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>169000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>178000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>318000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,144 +1900,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1358000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>753000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>477000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>472000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>616000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>527000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>379000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>509000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>330000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>681000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>430000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>552000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>537000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>541000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>307000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>638000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>395000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>448000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>341000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>594000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1355000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>749000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>476000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>467000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>613000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>527000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>376000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>505000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>327000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>676000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>426000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>551000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>537000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>540000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>306000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>637000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>394000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>447000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>340000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>593000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2056,8 +2113,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2082,8 +2142,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2097,20 +2157,20 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>9000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>994000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2124,8 +2184,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2255,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2260,144 +2326,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-29000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-21000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-109000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1355000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>749000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>476000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>467000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>613000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>527000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>376000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>505000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>327000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>676000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>426000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>551000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>537000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>541000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>315000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1631000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>394000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>447000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>340000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>593000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2464,149 +2539,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1355000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>749000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>476000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>467000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>613000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>527000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>376000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>505000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>327000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>676000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>426000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>551000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>537000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>541000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>315000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1631000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>394000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>447000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>340000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>593000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44107</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2631,8 +2715,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2657,76 +2742,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2956000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2507000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1613000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>877000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2406000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1420000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1365000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>437000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>497000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>484000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>406000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>360000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>270000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>170000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>198000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>293000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>318000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>231000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>243000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>307000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2793,280 +2882,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2091000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2324000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2113000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1952000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2064000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2248000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2063000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4346000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2452000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1837000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1892000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1723000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1684000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1594000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1600000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1675000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1710000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1589000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1512000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4454000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4382000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4262000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4128000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3915000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3859000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3915000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4025000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4304000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3929000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4149000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3899000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3777000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3513000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3378000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3328000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3213000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3239000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3248000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2970000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2767000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>635000</v>
+      </c>
+      <c r="E45" s="3">
         <v>533000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1009000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>896000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>323000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>367000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>355000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>389000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>329000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>404000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>426000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>280000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>232000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>182000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>845000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>870000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>887000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1026000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1099000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>215000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>156000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10136000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9822000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9208000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8014000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8544000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7598000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7699000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7099000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7193000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6990000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7433000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6376000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6301000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5688000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6077000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5990000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5993000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6258000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6288000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5017000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4742000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3133,144 +3237,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8012000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7837000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7725000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7661000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7664000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8128000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8055000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8005000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7911000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7282000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7271000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7085000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7018000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6169000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5925000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5755000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5673000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5568000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5545000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5283000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5206000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17009000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17068000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17141000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17204000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17632000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17673000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17732000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17745000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17837000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17881000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18150000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18241000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18255000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16498000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15903000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15635000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15686000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15567000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15636000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11705000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11733000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3337,8 +3450,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3405,76 +3521,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1667000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1582000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1589000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1595000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1618000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1057000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1072000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1041000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>870000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>765000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>811000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>796000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>761000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>754000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>733000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>711000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>694000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>673000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>594000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>591000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>576000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3541,76 +3663,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36824000</v>
+      </c>
+      <c r="E54" s="3">
         <v>36309000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35663000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34474000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35458000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34456000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34558000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33890000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33811000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32918000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33665000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32498000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32335000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29109000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28638000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28091000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28046000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28066000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28063000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22596000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22257000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3635,8 +3763,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3661,416 +3790,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2115000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2225000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1950000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1997000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1876000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1743000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1742000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1916000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1926000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1958000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1710000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1962000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1694000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1546000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1485000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1748000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1698000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1608000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1466000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1591000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1090000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1067000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1566000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>580000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>566000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>548000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>750000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1142000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1947000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2102000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2125000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1564000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3917000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1911000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1308000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1128000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>811000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>906000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1017000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>543000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>66000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2829000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3033000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2668000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2132000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2286000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1810000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1780000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1522000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1673000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1485000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1514000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1340000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1551000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1426000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1258000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1225000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1419000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1428000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1240000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1097000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1315000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6034000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6325000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6184000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4612000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4849000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4234000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4273000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4406000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5536000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5513000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5597000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4614000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7430000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5031000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4112000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3838000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3978000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4032000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3865000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3106000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2972000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8274000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8281000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8786000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9784000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>10791000</v>
       </c>
       <c r="H61" s="3">
         <v>10791000</v>
       </c>
       <c r="I61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="J61" s="3">
         <v>11279000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10978000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9772000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9830000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10461000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10810000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8075000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7962000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8852000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8872000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8875000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9297000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9807000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5905000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5901000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3974000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3849000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4000000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4008000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4037000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4045000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4002000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3912000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3937000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3481000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3466000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3516000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3571000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3305000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3237000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3225000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3219000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4178000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4254000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3796000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3817000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4137,8 +4285,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4205,8 +4356,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4273,76 +4427,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18421000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18586000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19102000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18543000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19820000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19202000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19700000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19441000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19392000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18968000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19737000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19075000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19208000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16306000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16212000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15955000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16091000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17525000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17946000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12825000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12707000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4367,8 +4527,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4435,8 +4596,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4503,8 +4667,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4571,8 +4738,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4639,76 +4809,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18453000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17502000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16305000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15716000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15399000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15100000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14769000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14392000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14178000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13655000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13553000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13012000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12719000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12329000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11913000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11479000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11272000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9776000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9464000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9098000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8837000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4775,8 +4951,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4843,8 +5022,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4911,76 +5093,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18403000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17723000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16561000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15931000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15638000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15254000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14858000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14449000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14419000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13950000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13928000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13423000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13127000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12803000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12426000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12136000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11955000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10541000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10117000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9771000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9550000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5047,149 +5235,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44107</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1355000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>749000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>476000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>467000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>613000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>527000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>376000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>505000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>327000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>676000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>426000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>551000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>537000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>541000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>315000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1631000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>394000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>447000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>340000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>593000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5214,76 +5411,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E83" s="3">
         <v>308000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>302000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>306000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>298000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>316000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>295000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>293000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>288000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>289000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>286000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>273000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>250000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>246000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>238000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>230000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>229000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>218000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>187000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>179000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>177000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5350,8 +5551,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5418,8 +5622,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5486,8 +5693,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5554,8 +5764,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5622,76 +5835,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1432000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1184000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1307000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-36000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1385000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1166000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1448000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>366000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>894000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>978000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>596000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>71000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>868000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1039000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>785000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1126000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1150000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>467000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-152000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1134000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5716,76 +5935,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-350000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-302000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-268000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-289000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-292000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-312000</v>
       </c>
       <c r="K91" s="3">
         <v>-312000</v>
       </c>
       <c r="L91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-288000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-315000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-338000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-318000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-313000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-328000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-263000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-296000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-287000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-315000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-267000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5852,8 +6075,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5920,76 +6146,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="E94" s="3">
         <v>841000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-275000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-249000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-259000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-280000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-266000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-496000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-381000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-129000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-569000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-317000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-483000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-737000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-264000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-422000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-297000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-264000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-214000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6014,13 +6246,14 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-159000</v>
+        <v>-164000</v>
       </c>
       <c r="E96" s="3">
         <v>-159000</v>
@@ -6032,34 +6265,34 @@
         <v>-159000</v>
       </c>
       <c r="H96" s="3">
-        <v>-150000</v>
+        <v>-159000</v>
       </c>
       <c r="I96" s="3">
         <v>-150000</v>
       </c>
       <c r="J96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-151000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-134000</v>
       </c>
       <c r="M96" s="3">
         <v>-134000</v>
       </c>
       <c r="N96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-135000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-134000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-108000</v>
       </c>
       <c r="R96" s="3">
         <v>-108000</v>
@@ -6068,22 +6301,25 @@
         <v>-108000</v>
       </c>
       <c r="T96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-81000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-79000</v>
       </c>
       <c r="W96" s="3">
         <v>-79000</v>
       </c>
       <c r="X96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6150,8 +6386,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6218,8 +6457,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6286,208 +6528,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-484000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1189000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-197000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-173000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-874000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-255000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>168000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-507000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-761000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>20000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>201000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1711000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-455000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-71000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>153000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-729000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-769000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2908000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>348000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-957000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E102" s="3">
         <v>829000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>836000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1463000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>969000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>928000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>78000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-40000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>130000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-28000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-95000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-25000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>87000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-12000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-64000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-42000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,316 +665,328 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44107</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13117000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12933000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12811000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12478000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11300000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10460000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11460000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10022000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10888000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10815000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10884000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10885000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10443000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10193000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9999000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10051000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9773000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10229000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10145000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9850000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9083000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9182000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11382000</v>
+      </c>
+      <c r="E9" s="3">
         <v>10918000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10270000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10803000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9952000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9163000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9653000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8394000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9966000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9337000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19490000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9549000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9251000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8838000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8660000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8752000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8753000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8786000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8794000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8648000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8036000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7699000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1735000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2015000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2541000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1675000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1348000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1297000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1807000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1628000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>922000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1478000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-8606000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1336000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1192000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1355000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1339000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1299000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1020000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1443000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1351000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1202000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1047000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1483000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,8 +1012,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,8 +1084,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1142,58 +1158,61 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>65000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>55000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>95000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>120000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>223000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>342000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>52000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>8000</v>
       </c>
       <c r="P14" s="3">
         <v>8000</v>
       </c>
       <c r="Q14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="R14" s="3">
         <v>14000</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1213,8 +1232,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1284,8 +1306,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1308,150 +1333,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11961000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11478000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10902000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11416000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10580000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9755000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10554000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9247000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10373000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10057000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10337000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10049000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9808000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9386000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9180000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9254000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9275000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9307000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9464000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9153000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8512000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8200000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1455000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1909000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1062000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>720000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>705000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>906000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>775000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>515000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>758000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>547000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>836000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>635000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>807000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>819000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>797000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>498000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>922000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>681000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>697000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>571000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>982000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1477,363 +1509,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E20" s="3">
         <v>55000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>29000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>21000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>109000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>13000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-9000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1810000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2246000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1373000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1040000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1024000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1221000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1084000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>917000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1065000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>821000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1131000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>920000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1062000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1090000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1048000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>737000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1157000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>892000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>875000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>754000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1147000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E22" s="3">
         <v>100000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>103000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>105000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>110000</v>
       </c>
       <c r="H22" s="3">
         <v>110000</v>
       </c>
       <c r="I22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="J22" s="3">
         <v>124000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>122000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>119000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>120000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>123000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>121000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>119000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>99000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>87000</v>
       </c>
       <c r="R22" s="3">
         <v>87000</v>
       </c>
       <c r="S22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="T22" s="3">
         <v>84000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>86000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>94000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>71000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>56000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>58000</v>
       </c>
       <c r="Y22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1087000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1410000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1835000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>966000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>624000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>616000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>781000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>667000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>505000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>657000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>409000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>724000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>528000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>713000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>757000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>723000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>423000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>842000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>580000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>617000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>519000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>912000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E24" s="3">
         <v>284000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>477000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>213000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>147000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>144000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>165000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>140000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>126000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>148000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>79000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>43000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>98000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>161000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>220000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>182000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>116000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>204000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>185000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>169000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>178000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>318000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1903,150 +1951,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>833000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1126000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1358000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>753000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>477000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>472000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>616000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>527000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>379000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>509000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>330000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>681000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>430000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>552000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>537000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>541000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>307000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>638000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>395000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>448000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>341000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>594000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>829000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1121000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1355000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>749000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>476000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>467000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>613000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>527000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>376000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>505000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>327000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>676000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>426000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>551000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>537000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>540000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>306000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>637000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>394000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>447000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>340000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>593000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2116,8 +2173,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2145,8 +2205,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2160,20 +2220,20 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>9000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>994000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2187,8 +2247,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2258,8 +2321,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2329,150 +2395,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-55000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-29000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-21000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-109000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-13000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>9000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>829000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1121000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1355000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>749000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>476000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>467000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>613000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>527000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>376000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>505000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>327000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>676000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>426000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>551000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>537000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>541000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>315000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1631000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>394000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>447000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>340000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>593000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2542,155 +2617,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>829000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1121000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1355000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>749000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>476000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>467000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>613000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>527000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>376000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>505000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>327000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>676000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>426000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>551000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>537000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>541000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>315000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1631000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>394000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>447000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>340000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>593000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44107</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2716,8 +2800,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2743,79 +2828,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1151000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2956000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2507000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1613000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>877000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2406000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1420000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1365000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>437000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>497000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>484000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>406000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>360000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>270000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>170000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>198000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>293000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>318000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>231000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>243000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>307000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2885,292 +2974,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2408000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2091000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2324000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2113000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1952000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2064000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2248000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2063000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4346000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2452000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1837000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1892000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1723000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1684000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1594000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1600000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1675000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1710000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1589000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1512000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4990000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4454000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4382000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4262000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4128000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3915000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3859000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3915000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4025000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4304000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3929000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4149000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3899000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3777000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3513000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3378000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3328000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3213000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3239000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3248000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2970000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2767000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E45" s="3">
         <v>635000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>533000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1009000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>896000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>323000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>367000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>355000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>389000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>329000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>404000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>426000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>280000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>232000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>182000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>845000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>870000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>887000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1026000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1099000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>215000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>156000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8997000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10136000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9822000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9208000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8014000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8544000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7598000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7699000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7099000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7193000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6990000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7433000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6376000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6301000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5688000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6077000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5990000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5993000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6258000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6288000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5017000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4742000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3240,150 +3344,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8193000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8012000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7837000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7725000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7661000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7664000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8128000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8055000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8005000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7911000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7282000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7271000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7085000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7018000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6169000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5925000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5755000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5673000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5568000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5545000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5283000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5206000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16945000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17009000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17068000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17141000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17204000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17632000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17673000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17732000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17745000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17837000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17881000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18150000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18241000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18255000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16498000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15903000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15635000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15686000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15567000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>15636000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11705000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>11733000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3453,8 +3566,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3524,79 +3640,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1763000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1667000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1582000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1589000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1595000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1618000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1057000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1072000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1041000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>870000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>765000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>811000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>796000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>761000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>754000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>733000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>711000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>694000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>673000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>594000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>591000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>576000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3666,79 +3788,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35898000</v>
+      </c>
+      <c r="E54" s="3">
         <v>36824000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36309000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35663000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34474000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35458000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34456000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34558000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33890000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33811000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32918000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33665000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32498000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32335000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29109000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28638000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28091000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28046000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28066000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28063000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22596000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22257000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3764,8 +3892,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3791,434 +3920,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2269000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2115000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2225000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1950000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1997000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1876000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1743000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1742000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1916000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1926000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1958000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1710000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1962000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1694000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1546000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1485000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1748000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1698000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1608000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1466000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1591000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1090000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1067000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1566000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>580000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>566000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>548000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>750000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1142000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1947000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2102000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2125000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1564000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3917000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1911000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1308000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1128000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>811000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>906000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1017000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>543000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>66000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2829000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3033000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2668000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2132000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2286000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1810000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1780000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1522000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1673000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1485000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1514000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1340000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1426000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1258000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1225000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1419000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1428000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1240000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1097000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1315000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4657000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6034000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6325000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6184000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4612000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4849000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4234000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4273000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4406000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5536000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5513000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5597000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4614000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7430000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5031000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4112000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3838000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3978000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4032000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3865000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3106000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2972000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8270000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8274000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8281000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8786000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9784000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>10791000</v>
       </c>
       <c r="I61" s="3">
         <v>10791000</v>
       </c>
       <c r="J61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="K61" s="3">
         <v>11279000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10978000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9772000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9830000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10461000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10810000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8075000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7962000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8852000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8872000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8875000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9297000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9807000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5905000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5901000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3815000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3974000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3849000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4000000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4008000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4037000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4045000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4002000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3912000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3937000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3481000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3466000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3516000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3571000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3305000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3237000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3225000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3219000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4178000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4254000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3796000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3817000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4288,8 +4436,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4359,8 +4510,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4430,79 +4584,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16884000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18421000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18586000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19102000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18543000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19820000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19202000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19700000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19441000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19392000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18968000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19737000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19075000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19208000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16306000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16212000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15955000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16091000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17525000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17946000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12825000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12707000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4528,8 +4688,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4599,8 +4760,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4670,8 +4834,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4741,8 +4908,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4812,79 +4982,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19119000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18453000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17502000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16305000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15716000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15399000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15100000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14769000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14392000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14178000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13655000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13553000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13012000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12719000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12329000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11913000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11479000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11272000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9776000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9464000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9098000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8837000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4954,8 +5130,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5025,8 +5204,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5096,79 +5278,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19014000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18403000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17723000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16561000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15931000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15638000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15254000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14858000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14449000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14419000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13950000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13928000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13423000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13127000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12803000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12426000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12136000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11955000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10541000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10117000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9771000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9550000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5238,155 +5426,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44107</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>829000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1121000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1355000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>749000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>476000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>467000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>613000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>527000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>376000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>505000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>327000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>676000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>426000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>551000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>537000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>541000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>315000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1631000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>394000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>447000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>340000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>593000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5412,79 +5609,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E83" s="3">
         <v>300000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>308000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>302000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>306000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>298000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>316000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>295000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>293000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>288000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>289000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>286000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>273000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>250000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>246000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>238000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>230000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>229000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>218000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>187000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>179000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>177000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5554,8 +5755,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5625,8 +5829,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5696,8 +5903,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5767,8 +5977,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5838,79 +6051,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1432000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1184000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1307000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-36000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1385000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1166000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1448000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>366000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>894000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>978000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>596000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>71000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>868000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1039000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>785000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1126000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1150000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>467000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-152000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1134000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5936,79 +6155,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-408000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-350000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-302000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-268000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-289000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-292000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-312000</v>
       </c>
       <c r="L91" s="3">
         <v>-312000</v>
       </c>
       <c r="M91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-288000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-315000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-338000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-318000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-313000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-328000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-263000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-296000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-287000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-315000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-267000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6078,8 +6301,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6149,79 +6375,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-426000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-459000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>841000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-275000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-249000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-259000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-280000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-266000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-496000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-381000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-129000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-569000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-317000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-483000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-737000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-264000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-422000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-297000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-264000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-214000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6247,8 +6479,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6256,7 +6489,7 @@
         <v>-164000</v>
       </c>
       <c r="E96" s="3">
-        <v>-159000</v>
+        <v>-164000</v>
       </c>
       <c r="F96" s="3">
         <v>-159000</v>
@@ -6268,34 +6501,34 @@
         <v>-159000</v>
       </c>
       <c r="I96" s="3">
-        <v>-150000</v>
+        <v>-159000</v>
       </c>
       <c r="J96" s="3">
         <v>-150000</v>
       </c>
       <c r="K96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-151000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-134000</v>
       </c>
       <c r="N96" s="3">
         <v>-134000</v>
       </c>
       <c r="O96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-135000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-134000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-108000</v>
       </c>
       <c r="S96" s="3">
         <v>-108000</v>
@@ -6304,22 +6537,25 @@
         <v>-108000</v>
       </c>
       <c r="U96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-81000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-79000</v>
       </c>
       <c r="X96" s="3">
         <v>-79000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6389,8 +6625,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6460,8 +6699,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6531,217 +6773,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-484000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1189000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-197000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-173000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-874000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-255000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>168000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-507000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-761000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>20000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>201000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1711000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-455000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-71000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>153000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-729000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-769000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2908000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>348000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-957000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1913000</v>
+      </c>
+      <c r="E102" s="3">
         <v>491000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>829000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>836000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1463000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>969000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>928000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>78000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>46000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-40000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>130000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-28000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-95000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-25000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>87000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-12000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-64000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,328 +665,340 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44107</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13495000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13117000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12933000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12811000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12478000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11300000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10460000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11460000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10022000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10888000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10815000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10884000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10885000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10443000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10193000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9999000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10051000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9773000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10229000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10145000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9850000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9083000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9182000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11884000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11382000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10918000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10270000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10803000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9952000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9163000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9653000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8394000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9966000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9337000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19490000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9549000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9251000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8838000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8660000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8752000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8753000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8786000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8794000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8648000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8036000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7699000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1611000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1735000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2015000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2541000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1675000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1348000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1297000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1807000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1628000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>922000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1478000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-8606000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1336000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1192000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1355000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1339000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1299000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1020000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1443000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1351000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1202000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1047000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1483000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1025,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1161,8 +1177,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,50 +1191,50 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>65000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>55000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>95000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>120000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>223000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>342000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>52000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>8000</v>
       </c>
       <c r="Q14" s="3">
         <v>8000</v>
       </c>
       <c r="R14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="S14" s="3">
         <v>14000</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1235,8 +1254,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1309,8 +1331,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1334,156 +1359,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12462000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11961000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11478000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10902000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11416000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10580000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9755000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10554000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9247000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10373000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10057000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10337000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10049000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9808000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9386000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9180000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9254000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9275000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9307000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9464000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9153000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8512000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8200000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1156000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1455000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1909000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1062000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>720000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>705000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>906000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>775000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>515000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>758000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>547000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>836000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>635000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>807000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>819000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>797000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>498000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>922000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>681000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>697000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>571000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>982000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1510,378 +1542,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E20" s="3">
         <v>28000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>55000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>21000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>109000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>13000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-9000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1368000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1479000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1810000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2246000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1373000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1040000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1024000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1221000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1084000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>917000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1065000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>821000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1131000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>920000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1062000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1090000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1048000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>737000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1157000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>892000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>875000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>754000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1147000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E22" s="3">
         <v>97000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>103000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>105000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>110000</v>
       </c>
       <c r="I22" s="3">
         <v>110000</v>
       </c>
       <c r="J22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K22" s="3">
         <v>124000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>122000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>119000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>120000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>123000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>121000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>119000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>99000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>87000</v>
       </c>
       <c r="S22" s="3">
         <v>87000</v>
       </c>
       <c r="T22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="U22" s="3">
         <v>84000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>86000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>94000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>71000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>56000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>58000</v>
       </c>
       <c r="Z22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1087000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1410000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1835000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>966000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>624000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>616000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>781000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>667000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>505000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>657000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>409000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>724000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>528000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>713000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>757000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>723000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>423000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>842000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>580000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>617000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>519000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>912000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E24" s="3">
         <v>254000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>284000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>477000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>213000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>147000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>144000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>165000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>140000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>126000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>148000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>79000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>43000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>98000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>161000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>220000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>182000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>116000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>204000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>185000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>169000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>178000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>318000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1954,156 +2002,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E26" s="3">
         <v>833000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1126000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1358000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>753000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>477000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>472000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>616000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>527000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>379000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>509000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>330000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>681000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>430000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>552000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>537000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>541000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>307000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>638000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>395000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>448000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>341000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>594000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E27" s="3">
         <v>829000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1121000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1355000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>749000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>476000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>467000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>613000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>527000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>376000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>505000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>327000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>676000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>426000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>551000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>537000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>540000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>306000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>637000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>394000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>447000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>340000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>593000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2176,8 +2233,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2208,8 +2268,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2223,20 +2283,20 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>9000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>994000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2250,8 +2310,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2324,8 +2387,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2398,156 +2464,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-28000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-55000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-21000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-109000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-13000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>9000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>12000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E33" s="3">
         <v>829000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1121000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1355000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>749000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>476000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>467000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>613000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>527000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>376000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>505000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>327000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>676000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>426000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>551000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>537000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>541000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>315000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1631000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>394000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>447000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>340000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>593000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2620,161 +2695,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E35" s="3">
         <v>829000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1121000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1355000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>749000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>476000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>467000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>613000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>527000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>376000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>505000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>327000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>676000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>426000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>551000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>537000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>541000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>315000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1631000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>394000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>447000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>340000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>593000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44107</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2801,8 +2885,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2829,82 +2914,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1056000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1151000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2956000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2507000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1613000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>877000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2406000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1420000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1365000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>437000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>497000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>484000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>406000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>360000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>270000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>170000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>198000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>293000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>318000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>231000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>243000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>307000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2977,304 +3066,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2518000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2408000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2091000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2324000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2113000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1952000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2064000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2248000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2063000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4346000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2452000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1837000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1892000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1723000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1684000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1594000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1600000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1675000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1710000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1589000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1512000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5332000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4990000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4454000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4382000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4262000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4128000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3915000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3859000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3915000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4025000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4304000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3929000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4149000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3899000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3777000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3513000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3378000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3328000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3213000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3239000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3248000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2970000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2767000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E45" s="3">
         <v>448000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>635000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>533000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1009000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>896000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>323000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>367000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>355000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>389000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>329000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>404000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>426000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>280000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>232000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>182000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>845000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>870000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>887000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1026000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1099000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>215000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>156000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9303000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8997000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10136000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9822000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9208000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8014000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8544000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7598000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7699000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7099000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7193000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6990000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7433000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6376000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6301000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5688000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6077000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5990000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5993000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6258000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6288000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5017000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4742000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3347,156 +3451,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8393000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8193000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8012000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7837000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7725000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7661000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7664000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8128000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8055000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8005000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7911000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7282000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7271000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7085000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7018000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6169000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5925000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5755000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5673000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5568000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5545000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5283000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5206000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16856000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16945000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17009000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17068000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17141000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17204000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17632000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17673000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17732000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17745000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17837000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17881000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>18150000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>18241000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18255000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16498000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15903000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15635000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15686000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>15567000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>15636000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>11705000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>11733000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3569,8 +3682,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3643,82 +3759,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1693000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1763000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1667000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1582000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1589000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1595000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1618000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1057000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1072000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1041000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>870000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>765000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>811000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>796000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>761000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>754000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>733000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>711000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>694000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>673000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>594000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>591000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>576000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3791,82 +3913,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36245000</v>
+      </c>
+      <c r="E54" s="3">
         <v>35898000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36824000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36309000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35663000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34474000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35458000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34456000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34558000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33890000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33811000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32918000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33665000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32498000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32335000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29109000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28638000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28091000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28046000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28066000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28063000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22596000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>22257000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3893,8 +4021,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3921,156 +4050,163 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2306000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2269000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2115000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2225000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1950000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1997000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1876000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1743000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1742000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1916000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1926000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1958000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1710000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1962000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1694000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1546000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1485000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1748000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1698000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1608000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1466000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1591000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E58" s="3">
         <v>79000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1090000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1067000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1566000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>580000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>566000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>548000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>750000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1142000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1947000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2102000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2125000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1564000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3917000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1911000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1308000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1128000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>811000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>906000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1017000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>543000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>66000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4078,295 +4214,307 @@
         <v>2309000</v>
       </c>
       <c r="E59" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2829000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3033000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2668000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2132000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2286000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1810000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1780000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1522000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1673000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1485000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1514000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1340000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1551000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1426000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1258000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1225000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1419000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1428000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1240000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1097000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1315000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4682000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4657000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6034000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6325000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6184000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4612000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4849000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4234000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4273000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4406000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5536000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5513000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5597000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4614000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7430000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5031000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4112000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3838000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3978000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4032000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3865000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3106000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2972000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8261000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8270000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8274000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8281000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8786000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9784000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>10791000</v>
       </c>
       <c r="J61" s="3">
         <v>10791000</v>
       </c>
       <c r="K61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="L61" s="3">
         <v>11279000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10978000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9772000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9830000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10461000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10810000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8075000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7962000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8852000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8872000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8875000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9297000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9807000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5905000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5901000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3813000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3815000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3974000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3849000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4000000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4008000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4037000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4045000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4002000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3912000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3937000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3481000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3466000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3516000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3571000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3305000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3237000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3225000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3219000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4178000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4254000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3796000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3817000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4439,8 +4587,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4513,8 +4664,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4587,82 +4741,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16890000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16884000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18421000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18586000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19102000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18543000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19820000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19202000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19700000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19441000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19392000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18968000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19737000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19075000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19208000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16306000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16212000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15955000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16091000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17525000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17946000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12825000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12707000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4689,8 +4849,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4763,8 +4924,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4837,8 +5001,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4911,8 +5078,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4985,82 +5155,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19708000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19119000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18453000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17502000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16305000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15716000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15399000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15100000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14769000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14392000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14178000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13655000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13553000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13012000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12719000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12329000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11913000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11479000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11272000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9776000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9464000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9098000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8837000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5133,8 +5309,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5207,8 +5386,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5281,82 +5463,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19355000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19014000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18403000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17723000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16561000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15931000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15638000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15254000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14858000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14449000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14419000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13950000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13928000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13423000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13127000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12803000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12426000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12136000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11955000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10541000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10117000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9771000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9550000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5429,161 +5617,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44107</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E81" s="3">
         <v>829000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1121000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1355000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>749000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>476000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>467000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>613000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>527000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>376000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>505000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>327000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>676000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>426000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>551000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>537000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>541000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>315000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1631000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>394000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>447000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>340000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>593000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5610,82 +5807,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E83" s="3">
         <v>295000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>308000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>302000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>306000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>298000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>316000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>295000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>293000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>288000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>289000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>286000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>273000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>250000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>246000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>238000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>230000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>229000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>218000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>187000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>179000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>177000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5758,8 +5959,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5832,8 +6036,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5906,8 +6113,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5980,8 +6190,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6054,82 +6267,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-208000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1432000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1184000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1307000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-36000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1385000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1166000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1448000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>366000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>894000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>978000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>596000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>71000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>868000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1039000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>785000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1126000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1150000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>467000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-152000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1134000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6156,82 +6375,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-476000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-439000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-408000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-350000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-302000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-268000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-289000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-292000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-312000</v>
       </c>
       <c r="M91" s="3">
         <v>-312000</v>
       </c>
       <c r="N91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-288000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-315000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-338000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-318000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-313000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-328000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-263000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-296000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-287000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-315000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-267000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6304,8 +6527,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6378,82 +6604,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-440000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-426000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-459000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>841000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-275000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-249000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-259000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-280000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-266000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-496000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-381000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-129000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-569000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-317000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-483000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-737000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-264000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-422000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-297000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-264000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-214000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6480,19 +6712,20 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-164000</v>
+        <v>-163000</v>
       </c>
       <c r="E96" s="3">
         <v>-164000</v>
       </c>
       <c r="F96" s="3">
-        <v>-159000</v>
+        <v>-164000</v>
       </c>
       <c r="G96" s="3">
         <v>-159000</v>
@@ -6504,34 +6737,34 @@
         <v>-159000</v>
       </c>
       <c r="J96" s="3">
-        <v>-150000</v>
+        <v>-159000</v>
       </c>
       <c r="K96" s="3">
         <v>-150000</v>
       </c>
       <c r="L96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-151000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-134000</v>
       </c>
       <c r="O96" s="3">
         <v>-134000</v>
       </c>
       <c r="P96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-134000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-108000</v>
       </c>
       <c r="T96" s="3">
         <v>-108000</v>
@@ -6540,22 +6773,25 @@
         <v>-108000</v>
       </c>
       <c r="V96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-81000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-79000</v>
       </c>
       <c r="Y96" s="3">
         <v>-79000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6628,8 +6864,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6702,8 +6941,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6776,226 +7018,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-361000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1283000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-484000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1189000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-197000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-173000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-874000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-255000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>168000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-507000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-761000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>20000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>201000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1711000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-455000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-71000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>153000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-729000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-769000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2908000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>348000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-957000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1913000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>491000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>829000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>836000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1463000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>969000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>928000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>78000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>46000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>130000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-28000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-95000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-25000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>87000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-12000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-64000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,340 +665,365 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13260000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13737000</v>
+      </c>
+      <c r="F8" s="3">
         <v>13495000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>13117000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12933000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>12811000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>12478000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>11300000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10460000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11460000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10022000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10888000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10815000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10884000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10885000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>10443000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>10193000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>9999000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>10051000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>9773000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>10229000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>10145000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>9850000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>9083000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>9182000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12284000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12430000</v>
+      </c>
+      <c r="F9" s="3">
         <v>11884000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11382000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10918000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>10270000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>10803000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>9952000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9163000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9653000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8394000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9966000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>9337000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>19490000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>9549000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>9251000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8838000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8660000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>8752000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>8753000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>8786000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>8794000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>8648000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>8036000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>7699000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>976000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1611000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1735000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2015000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2541000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1675000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1348000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1297000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1807000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1628000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>922000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1478000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-8606000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1192000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1355000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1339000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1299000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1020000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1443000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1351000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1202000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1047000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1483000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,8 +1051,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1103,8 +1130,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1180,13 +1213,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>21000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1194,54 +1233,54 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>65000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>55000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>95000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>120000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>223000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>342000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>52000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>8000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>14000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>14000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1257,8 +1296,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,8 +1379,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1360,162 +1411,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12793000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12971000</v>
+      </c>
+      <c r="F17" s="3">
         <v>12462000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11961000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11478000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10902000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11416000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10580000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9755000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10554000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9247000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10373000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10057000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10337000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10049000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>9808000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9386000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>9180000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>9254000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>9275000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>9307000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>9464000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>9153000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8512000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>8200000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>766000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1033000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1156000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1455000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1909000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1062000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>720000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>705000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>906000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>775000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>515000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>758000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>547000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>836000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>635000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>807000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>819000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>797000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>498000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>922000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>681000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>697000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>571000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>982000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1543,393 +1608,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F20" s="3">
         <v>38000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>28000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>55000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>21000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>109000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>19000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>12000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>25000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>13000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-7000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>4000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>821000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1368000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1479000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1810000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2246000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1373000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1040000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1024000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1221000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1084000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>917000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1065000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>821000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1131000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>920000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1062000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1090000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1048000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>737000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1157000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>892000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>875000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>754000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1147000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>83000</v>
+      </c>
+      <c r="F22" s="3">
         <v>85000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>97000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>103000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>105000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>110000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>110000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>124000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>122000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>119000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>120000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>123000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>121000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>119000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>99000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>87000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>87000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>84000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>86000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>94000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>71000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>56000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>58000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>434000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>666000</v>
+      </c>
+      <c r="F23" s="3">
         <v>986000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1087000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1410000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1835000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>966000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>624000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>616000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>781000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>667000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>505000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>657000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>409000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>724000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>528000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>713000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>757000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>723000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>423000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>842000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>580000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>617000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>519000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>912000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F24" s="3">
         <v>233000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>254000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>284000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>477000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>213000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>147000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>144000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>165000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>140000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>126000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>148000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>79000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>43000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>98000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>161000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>220000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>182000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>116000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>204000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>185000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>169000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>178000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>318000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2005,162 +2102,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>537000</v>
+      </c>
+      <c r="F26" s="3">
         <v>753000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>833000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1126000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1358000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>753000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>477000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>472000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>616000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>527000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>379000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>509000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>330000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>681000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>430000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>552000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>537000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>541000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>307000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>638000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>395000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>448000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>341000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>594000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>538000</v>
+      </c>
+      <c r="F27" s="3">
         <v>750000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>829000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1121000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1355000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>749000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>476000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>467000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>613000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>527000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>376000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>505000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>327000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>676000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>426000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>551000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>537000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>540000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>306000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>637000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>394000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>447000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>340000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>593000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2236,8 +2351,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2271,11 +2392,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2286,23 +2407,23 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>1000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>9000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>994000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2313,8 +2434,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2390,8 +2517,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2467,162 +2600,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-38000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-28000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-55000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-21000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-109000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-19000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-12000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-25000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-13000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>7000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>9000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>12000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>538000</v>
+      </c>
+      <c r="F33" s="3">
         <v>750000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>829000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1121000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1355000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>749000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>476000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>467000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>613000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>527000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>376000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>505000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>327000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>676000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>426000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>551000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>537000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>541000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>315000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1631000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>394000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>447000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>340000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>593000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2698,167 +2849,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>538000</v>
+      </c>
+      <c r="F35" s="3">
         <v>750000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>829000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1121000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1355000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>749000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>476000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>467000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>613000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>527000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>376000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>505000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>327000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>676000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>426000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>551000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>537000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>541000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>315000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1631000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>394000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>447000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>340000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>593000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2886,8 +3055,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2915,85 +3086,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>654000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1056000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1151000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2956000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2507000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1613000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>877000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2406000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1420000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1365000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>437000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>497000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>484000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>406000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>360000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>400000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>270000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>170000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>198000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>293000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>318000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>231000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>243000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>307000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3069,316 +3248,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2295000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2577000</v>
+      </c>
+      <c r="F43" s="3">
         <v>2518000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2408000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2091000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2400000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2324000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2113000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1900000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1952000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2064000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2248000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2063000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4346000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2452000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1837000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1892000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1723000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1684000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1594000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1600000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1675000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1710000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1589000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1512000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5596000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5514000</v>
+      </c>
+      <c r="F44" s="3">
         <v>5332000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4990000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4454000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4382000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4262000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4128000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3915000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3859000</v>
       </c>
       <c r="L44" s="3">
         <v>3915000</v>
       </c>
       <c r="M44" s="3">
+        <v>3859000</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3915000</v>
+      </c>
+      <c r="O44" s="3">
         <v>4025000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4304000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3929000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4149000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3899000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>3777000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>3513000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>3378000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>3328000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>3213000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>3239000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>3248000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2970000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>2767000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>508000</v>
+      </c>
+      <c r="F45" s="3">
         <v>397000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>448000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>635000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>533000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1009000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>896000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>323000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>367000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>355000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>389000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>329000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>404000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>426000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>280000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>232000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>182000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>845000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>870000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>887000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1026000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1099000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>215000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>156000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8953000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9630000</v>
+      </c>
+      <c r="F46" s="3">
         <v>9303000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8997000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10136000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9822000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9208000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8014000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8544000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7598000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7699000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7099000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7193000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6990000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7433000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6376000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6301000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5688000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6077000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5990000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5993000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6258000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6288000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5017000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>4742000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3454,162 +3663,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9120000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8685000</v>
+      </c>
+      <c r="F48" s="3">
         <v>8393000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8193000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8012000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7837000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>7725000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7661000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7664000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8128000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8055000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8005000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7911000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7282000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7271000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>7085000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>7018000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6169000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>5925000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5755000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>5673000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>5568000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>5545000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>5283000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>5206000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16763000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16765000</v>
+      </c>
+      <c r="F49" s="3">
         <v>16856000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>16945000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>17009000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>17068000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>17141000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>17204000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17632000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>17673000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>17732000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>17745000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>17837000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>17881000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>18150000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>18241000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>18255000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>16498000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>15903000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>15635000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>15686000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>15567000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>15636000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>11705000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>11733000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3685,8 +3912,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3762,85 +3995,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1842000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1741000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1693000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1763000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1667000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1582000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1589000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1595000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1618000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1057000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1072000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1041000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>870000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>765000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>811000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>796000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>761000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>754000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>733000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>711000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>694000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>673000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>594000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>591000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>576000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3916,85 +4161,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36678000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>36821000</v>
+      </c>
+      <c r="F54" s="3">
         <v>36245000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>35898000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>36824000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>36309000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>35663000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>34474000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>35458000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>34456000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>34558000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>33890000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>33811000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>32918000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>33665000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>32498000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>32335000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>29109000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>28638000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>28091000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>28046000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>28066000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>28063000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>22596000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>22257000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4022,8 +4279,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4051,470 +4310,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2530000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2483000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2306000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2269000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2115000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2225000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1950000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1900000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1997000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1876000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1743000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1742000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1916000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1926000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1958000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1710000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1962000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1694000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1546000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1485000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1748000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1698000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1608000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1466000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1591000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>459000</v>
+      </c>
+      <c r="F58" s="3">
         <v>67000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>79000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1090000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1067000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1566000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>580000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>566000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>548000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>750000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1142000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1947000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2102000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2125000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1564000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3917000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1911000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1308000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1128000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>811000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>906000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1017000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>543000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>66000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2371000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2309000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2309000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2829000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3033000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2668000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2132000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2286000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1810000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1780000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1522000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1673000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1485000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1514000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1340000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1551000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1426000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1258000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1225000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1419000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1428000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1240000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1097000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1315000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5114000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5313000</v>
+      </c>
+      <c r="F60" s="3">
         <v>4682000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4657000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6034000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6325000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6184000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4612000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4849000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4234000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4273000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4406000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5536000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5513000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5597000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4614000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>7430000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5031000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4112000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3838000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3978000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4032000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3865000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>3106000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2972000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7859000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7862000</v>
+      </c>
+      <c r="F61" s="3">
         <v>8261000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>8270000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>8274000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8281000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>8786000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>9784000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10791000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>10791000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>11279000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>10978000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>9772000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>9830000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>10461000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>10810000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>8075000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>7962000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>8852000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>8872000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>8875000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>9297000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>9807000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5905000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>5901000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3918000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3835000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3813000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3815000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3974000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3849000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4000000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4008000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4037000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4045000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4002000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3912000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3937000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3481000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3466000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3516000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3571000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3305000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>3237000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>3225000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>3219000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>4178000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>4254000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>3796000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>3817000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4590,8 +4887,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4667,8 +4970,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4744,85 +5053,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17043000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17119000</v>
+      </c>
+      <c r="F66" s="3">
         <v>16890000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16884000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>18421000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18586000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>19102000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18543000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19820000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19202000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19700000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19441000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19392000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>18968000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19737000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19075000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>19208000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>16306000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>16212000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>15955000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>16091000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>17525000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>17946000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>12825000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>12707000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4850,8 +5171,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4927,8 +5250,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5004,8 +5333,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5081,8 +5416,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5158,85 +5499,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20225000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>20084000</v>
+      </c>
+      <c r="F72" s="3">
         <v>19708000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>19119000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>18453000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>17502000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>16305000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>15716000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>15399000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15100000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>14769000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>14392000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>14178000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13655000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>13553000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>13012000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>12719000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>12329000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>11913000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>11479000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>11272000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>9776000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>9464000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>9098000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>8837000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5312,8 +5665,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5389,8 +5748,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5466,85 +5831,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19635000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>19702000</v>
+      </c>
+      <c r="F76" s="3">
         <v>19355000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>19014000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>18403000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>17723000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>16561000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>15931000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15638000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15254000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>14858000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14449000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14419000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>13950000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13928000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>13423000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>13127000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>12803000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12426000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>12136000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>11955000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>10541000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>10117000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>9771000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>9550000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5620,167 +5997,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44107</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>538000</v>
+      </c>
+      <c r="F81" s="3">
         <v>750000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>829000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1121000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1355000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>749000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>476000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>467000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>613000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>527000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>376000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>505000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>327000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>676000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>426000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>551000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>537000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>541000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>315000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1631000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>394000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>447000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>340000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>593000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5808,85 +6203,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F83" s="3">
         <v>297000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>295000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>300000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>308000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>302000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>306000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>298000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>316000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>295000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>293000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>288000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>289000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>286000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>273000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>250000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>246000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>238000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>230000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>229000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>218000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>187000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>179000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>177000</v>
       </c>
       <c r="AA83" s="3">
         <v>179000</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>177000</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>179000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5962,8 +6365,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6039,8 +6448,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6116,8 +6531,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6193,8 +6614,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6270,85 +6697,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>797000</v>
+      </c>
+      <c r="F89" s="3">
         <v>666000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-208000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1432000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1184000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1307000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-36000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1385000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1166000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1448000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>366000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>894000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>978000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>596000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>71000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>868000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1039000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>785000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>13000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1126000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1150000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>467000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-152000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1134000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6376,85 +6815,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-589000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-564000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-476000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-439000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-408000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-350000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-302000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-268000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-289000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-292000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-283000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-312000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-312000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-288000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-315000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-338000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-318000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-313000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-328000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-263000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-296000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-287000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-315000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-267000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-200000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6530,8 +6977,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6607,85 +7060,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-669000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-610000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-440000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-426000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-459000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>841000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-275000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-249000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-259000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-280000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-266000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-496000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-381000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-129000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-569000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-317000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-483000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-737000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-264000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-422000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-297000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-264000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-214000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6713,25 +7178,27 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-163000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-164000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-164000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-159000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-159000</v>
       </c>
       <c r="I96" s="3">
         <v>-159000</v>
@@ -6740,58 +7207,64 @@
         <v>-159000</v>
       </c>
       <c r="K96" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-150000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-151000</v>
       </c>
       <c r="N96" s="3">
         <v>-150000</v>
       </c>
       <c r="O96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-134000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-134000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-135000</v>
       </c>
       <c r="R96" s="3">
         <v>-134000</v>
       </c>
       <c r="S96" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-108000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-108000</v>
       </c>
       <c r="V96" s="3">
         <v>-108000</v>
       </c>
       <c r="W96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-81000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-80000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-79000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-79000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6867,8 +7340,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6944,8 +7423,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7021,235 +7506,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-482000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-195000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-361000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1283000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-484000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1189000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-197000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-173000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-874000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-255000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>168000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-507000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-761000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>20000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>201000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1711000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-455000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-71000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>153000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-729000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-769000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>2908000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>348000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-957000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-24000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>5000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-5000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
       </c>
       <c r="W101" s="3">
         <v>3000</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Z101" s="3">
         <v>2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>4000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-377000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-159000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1913000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>491000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>829000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>836000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1463000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>969000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>19000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>928000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>22000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>78000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>46000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-40000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>130000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>100000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-28000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-95000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-25000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>87000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,378 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44107</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13133000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13260000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13737000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13495000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13117000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12933000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12811000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12478000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11300000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10460000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11460000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10022000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10888000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10815000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10884000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10885000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10443000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10193000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9999000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10051000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9773000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10229000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10145000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9850000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9083000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9182000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12610000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12284000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12430000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11884000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11382000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10918000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10270000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10803000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9952000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9163000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9653000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8394000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9966000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9337000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19490000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9549000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9251000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8838000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8660000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8752000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8753000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8786000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8794000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8648000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8036000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7699000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>523000</v>
+      </c>
+      <c r="E10" s="3">
         <v>976000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1307000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1611000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1735000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2015000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2541000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1675000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1348000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1297000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1807000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1628000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>922000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1478000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-8606000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1336000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1192000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1355000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1339000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1299000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1020000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1443000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1351000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1202000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1047000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1483000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,8 +1066,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1136,8 +1150,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,16 +1236,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E14" s="3">
         <v>21000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1239,50 +1259,50 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>65000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>55000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>95000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>120000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>223000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>342000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>52000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>8000</v>
       </c>
       <c r="T14" s="3">
         <v>8000</v>
       </c>
       <c r="U14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="V14" s="3">
         <v>14000</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1302,8 +1322,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1385,8 +1408,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1413,174 +1439,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13182000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12793000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12971000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12462000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11961000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11478000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10902000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11416000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10580000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9755000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10554000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9247000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10373000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10057000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10337000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10049000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9808000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9386000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9180000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9254000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9275000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9307000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9464000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9153000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8512000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8200000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E18" s="3">
         <v>467000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>766000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1033000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1156000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1455000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1909000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1062000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>720000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>705000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>906000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>775000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>515000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>758000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>547000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>836000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>635000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>807000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>819000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>797000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>498000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>922000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>681000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>697000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>571000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>982000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1610,423 +1643,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>51000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>38000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>28000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>55000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>109000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>13000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-12000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E21" s="3">
         <v>821000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1059000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1368000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1479000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1810000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2246000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1373000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1040000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1024000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1221000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1084000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>917000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1065000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>821000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1131000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>920000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1062000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1090000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1048000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>737000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1157000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>892000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>875000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>754000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1147000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E22" s="3">
         <v>84000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>83000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>85000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>97000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>103000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>105000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>110000</v>
       </c>
       <c r="L22" s="3">
         <v>110000</v>
       </c>
       <c r="M22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="N22" s="3">
         <v>124000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>122000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>119000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>120000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>123000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>121000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>119000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>99000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>87000</v>
       </c>
       <c r="V22" s="3">
         <v>87000</v>
       </c>
       <c r="W22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="X22" s="3">
         <v>84000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>86000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>94000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>71000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>56000</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>58000</v>
       </c>
       <c r="AC22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E23" s="3">
         <v>434000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>666000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>986000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1087000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1410000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1835000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>966000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>624000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>616000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>781000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>667000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>505000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>657000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>409000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>724000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>528000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>713000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>757000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>723000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>423000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>842000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>580000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>617000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>519000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>912000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E24" s="3">
         <v>114000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>129000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>233000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>254000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>284000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>477000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>213000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>147000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>144000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>165000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>140000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>126000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>148000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>79000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>43000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>98000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>161000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>220000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>182000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>116000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>204000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>185000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>169000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>178000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>318000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2108,174 +2157,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E26" s="3">
         <v>320000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>537000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>753000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>833000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1126000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1358000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>753000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>477000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>472000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>616000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>527000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>379000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>509000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>330000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>681000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>430000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>552000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>537000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>541000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>307000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>638000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>395000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>448000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>341000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>594000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E27" s="3">
         <v>316000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>538000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>750000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>829000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1121000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1355000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>749000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>476000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>467000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>613000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>527000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>376000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>505000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>327000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>676000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>426000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>551000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>537000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>540000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>306000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>637000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>394000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>447000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>340000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>593000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2357,8 +2415,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2398,8 +2459,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2413,20 +2474,20 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>1000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>9000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>994000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2440,8 +2501,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2523,8 +2587,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2606,174 +2673,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-51000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-38000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-28000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-55000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-109000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-13000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>9000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>12000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E33" s="3">
         <v>316000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>538000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>750000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>829000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1121000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1355000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>749000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>476000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>467000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>613000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>527000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>376000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>505000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>327000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>676000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>426000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>551000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>537000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>541000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>315000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1631000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>394000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>447000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>340000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>593000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2855,179 +2931,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E35" s="3">
         <v>316000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>538000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>750000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>829000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1121000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1355000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>749000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>476000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>467000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>613000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>527000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>376000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>505000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>327000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>676000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>426000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>551000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>537000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>541000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>315000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1631000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>394000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>447000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>340000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>593000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44107</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3057,8 +3142,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3088,91 +3174,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>543000</v>
+      </c>
+      <c r="E41" s="3">
         <v>654000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1031000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1056000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1151000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2956000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2507000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1613000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>877000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2406000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1420000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1365000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>437000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>497000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>484000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>406000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>360000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>270000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>170000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>198000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>293000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>318000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>231000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>243000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>307000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3254,340 +3344,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2433000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2295000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2577000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2518000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2408000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2091000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2400000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2324000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2113000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1952000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2064000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2248000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2063000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4346000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2452000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1837000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1892000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1723000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1684000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1594000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1600000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1675000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1710000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1589000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1512000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5504000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5596000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5514000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5332000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4990000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4454000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4382000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4262000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4128000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3915000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3859000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3915000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4025000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4304000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3929000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4149000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3899000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3777000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3513000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3378000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3328000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3213000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3239000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3248000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2970000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2767000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E45" s="3">
         <v>408000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>508000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>397000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>448000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>635000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>533000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1009000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>896000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>323000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>367000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>355000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>389000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>329000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>404000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>426000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>280000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>232000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>182000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>845000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>870000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>887000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1026000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1099000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>215000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>156000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8892000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8953000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9630000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9303000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8997000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10136000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9822000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9208000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8014000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8544000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7598000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7699000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7099000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7193000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6990000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7433000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6376000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6301000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5688000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6077000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5990000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5993000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6258000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6288000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5017000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4742000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3669,174 +3774,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9351000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9120000</v>
       </c>
-      <c r="E48" s="3">
-        <v>8685000</v>
-      </c>
       <c r="F48" s="3">
+        <v>9192000</v>
+      </c>
+      <c r="G48" s="3">
         <v>8393000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8193000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8012000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7837000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7725000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7661000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7664000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8128000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8055000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8005000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7911000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7282000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7271000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7085000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7018000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6169000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5925000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5755000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5673000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5568000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5545000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5283000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5206000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16707000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16763000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16765000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16856000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16945000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17009000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17068000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17141000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17204000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17632000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17673000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17732000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17745000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17837000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17881000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18150000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18241000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18255000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>16498000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>15903000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>15635000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>15686000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>15567000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>15636000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>11705000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>11733000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3918,8 +4032,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4001,91 +4118,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1846000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1842000</v>
       </c>
-      <c r="E52" s="3">
-        <v>1741000</v>
-      </c>
       <c r="F52" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1693000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1763000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1667000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1582000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1589000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1595000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1618000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1057000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1072000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1041000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>870000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>765000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>811000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>796000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>761000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>754000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>733000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>711000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>694000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>673000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>594000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>591000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>576000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4167,91 +4290,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36796000</v>
+      </c>
+      <c r="E54" s="3">
         <v>36678000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36821000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36245000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35898000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36824000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36309000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35663000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34474000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35458000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34456000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34558000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33890000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33811000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32918000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33665000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32498000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32335000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29109000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28638000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28091000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28046000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28066000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28063000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>22596000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>22257000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4281,8 +4410,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4312,506 +4442,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2387000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2530000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2483000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2306000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2269000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2115000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2225000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1950000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1997000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1876000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1743000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1742000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1916000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1926000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1958000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1710000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1962000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1694000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1546000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1485000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1748000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1698000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1608000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1466000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1591000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E58" s="3">
         <v>490000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>459000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>67000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>79000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1090000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1067000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1566000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>580000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>566000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>548000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>750000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1142000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1947000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2102000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2125000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1564000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3917000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1911000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1308000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1128000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>811000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>906000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1017000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>543000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>66000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1894000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2094000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2371000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2309000</v>
       </c>
       <c r="G59" s="3">
         <v>2309000</v>
       </c>
       <c r="H59" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="I59" s="3">
         <v>2829000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3033000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2668000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2132000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2286000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1810000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1780000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1522000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1673000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1485000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1514000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1340000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1551000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1426000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1258000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1225000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1419000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1428000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1240000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1097000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1315000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5346000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5114000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5313000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4682000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4657000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6034000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6325000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6184000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4612000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4849000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4234000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4273000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4406000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5536000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5513000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5597000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4614000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7430000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5031000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4112000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3838000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3978000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4032000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3865000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3106000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2972000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7865000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7859000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7862000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8261000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8270000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8274000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8281000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8786000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9784000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>10791000</v>
       </c>
       <c r="M61" s="3">
         <v>10791000</v>
       </c>
       <c r="N61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="O61" s="3">
         <v>11279000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10978000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9772000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9830000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10461000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10810000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8075000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7962000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8852000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8872000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8875000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9297000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9807000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5905000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5901000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4027000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3918000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3835000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3813000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3815000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3974000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3849000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4000000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4008000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4037000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4045000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4002000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3912000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3937000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3481000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3466000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3516000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3571000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3305000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3237000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3225000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3219000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4178000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4254000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3796000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3817000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4893,8 +5042,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4976,8 +5128,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5059,91 +5214,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17397000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17043000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17119000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16890000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16884000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18421000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18586000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19102000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18543000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19820000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19202000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19700000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19441000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19392000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18968000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19737000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19075000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19208000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16306000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16212000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15955000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16091000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>17525000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>17946000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12825000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12707000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5173,8 +5334,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5256,8 +5418,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5339,8 +5504,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5422,8 +5590,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5505,91 +5676,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19962000</v>
+      </c>
+      <c r="E72" s="3">
         <v>20225000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20084000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>19708000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19119000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18453000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17502000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16305000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15716000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15399000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15100000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14769000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14392000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14178000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13655000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13553000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13012000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12719000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12329000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11913000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11479000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11272000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9776000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9464000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9098000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8837000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5671,8 +5848,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5754,8 +5934,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5837,91 +6020,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19399000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19635000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19702000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19355000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19014000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18403000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17723000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16561000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15931000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15638000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15254000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14858000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14449000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14419000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13950000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13928000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13423000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13127000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12803000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12426000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12136000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11955000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10541000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10117000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9771000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9550000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6003,179 +6192,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44107</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E81" s="3">
         <v>316000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>538000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>750000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>829000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1121000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1355000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>749000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>476000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>467000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>613000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>527000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>376000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>505000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>327000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>676000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>426000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>551000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>537000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>541000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>315000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1631000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>394000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>447000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>340000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>593000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6205,91 +6403,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E83" s="3">
         <v>303000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>310000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>297000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>295000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>308000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>302000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>306000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>298000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>316000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>295000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>293000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>288000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>289000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>286000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>273000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>250000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>246000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>238000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>230000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>229000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>218000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>187000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>179000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>177000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6371,8 +6573,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6454,8 +6659,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6537,8 +6745,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6620,8 +6831,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6703,91 +6917,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E89" s="3">
         <v>762000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>797000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>666000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-208000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1432000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1184000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1307000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-36000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1385000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1166000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1448000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>366000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>894000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>978000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>596000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>71000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>868000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1039000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>785000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1126000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1150000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>467000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-152000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1134000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6817,91 +7037,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-508000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-589000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-564000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-476000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-439000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-408000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-350000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-302000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-268000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-289000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-292000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-312000</v>
       </c>
       <c r="P91" s="3">
         <v>-312000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-288000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-315000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-338000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-318000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-313000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-328000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-263000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-296000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-287000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-315000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-267000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-200000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6983,8 +7207,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7066,91 +7293,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-507000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-669000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-610000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-440000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-426000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-459000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>841000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-275000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-249000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-259000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-280000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-266000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-496000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-381000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-129000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-569000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-317000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-483000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-737000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-264000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-422000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-297000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-264000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-214000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7180,28 +7413,29 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-169000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-162000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-164000</v>
       </c>
       <c r="H96" s="3">
         <v>-164000</v>
       </c>
       <c r="I96" s="3">
-        <v>-159000</v>
+        <v>-164000</v>
       </c>
       <c r="J96" s="3">
         <v>-159000</v>
@@ -7213,34 +7447,34 @@
         <v>-159000</v>
       </c>
       <c r="M96" s="3">
-        <v>-150000</v>
+        <v>-159000</v>
       </c>
       <c r="N96" s="3">
         <v>-150000</v>
       </c>
       <c r="O96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-151000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-134000</v>
       </c>
       <c r="R96" s="3">
         <v>-134000</v>
       </c>
       <c r="S96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-135000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-134000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-108000</v>
       </c>
       <c r="W96" s="3">
         <v>-108000</v>
@@ -7249,22 +7483,25 @@
         <v>-108000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-81000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-79000</v>
       </c>
       <c r="AB96" s="3">
         <v>-79000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7346,8 +7583,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7429,8 +7669,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7512,253 +7755,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-482000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-195000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-361000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1283000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-484000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1189000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-197000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-173000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-874000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-255000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>168000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-507000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-761000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>20000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>201000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1711000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-455000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-71000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>153000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-729000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-769000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2908000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>348000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-957000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-17000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-24000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-377000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-159000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1913000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>491000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>829000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>836000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1463000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>969000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>928000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>78000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-40000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>130000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-28000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-95000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>87000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-42000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,378 +665,390 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44107</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13140000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13133000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13260000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13737000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13495000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13117000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12933000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12811000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12478000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11300000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10460000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11460000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10022000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10888000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10815000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10884000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10885000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10443000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10193000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9999000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10051000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9773000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10229000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10145000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9850000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9083000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9182000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12610000</v>
+        <v>12429000</v>
       </c>
       <c r="E9" s="3">
+        <v>12518000</v>
+      </c>
+      <c r="F9" s="3">
         <v>12284000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12430000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11884000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11382000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10918000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10270000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10803000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9952000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9163000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9653000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8394000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9966000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9337000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19490000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9549000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9251000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8838000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8660000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8752000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8753000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8786000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8794000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8648000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8036000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7699000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>523000</v>
+        <v>711000</v>
       </c>
       <c r="E10" s="3">
+        <v>615000</v>
+      </c>
+      <c r="F10" s="3">
         <v>976000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1307000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1611000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1735000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2015000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2541000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1675000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1348000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1297000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1807000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1628000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>922000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1478000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-8606000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1336000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1192000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1355000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1339000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1299000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1020000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1443000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1351000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1202000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1047000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1483000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1153,8 +1166,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,19 +1255,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22000</v>
+        <v>513000</v>
       </c>
       <c r="E14" s="3">
+        <v>114000</v>
+      </c>
+      <c r="F14" s="3">
         <v>21000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1262,50 +1281,50 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>65000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>95000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>120000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>223000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>342000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>52000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>8000</v>
       </c>
       <c r="U14" s="3">
         <v>8000</v>
       </c>
       <c r="V14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="W14" s="3">
         <v>14000</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1325,8 +1344,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1411,8 +1433,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1440,180 +1465,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13490000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13182000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12793000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12971000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12462000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11961000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11478000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10902000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11416000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10580000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9755000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10554000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9247000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10373000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10057000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10337000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10049000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9808000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9386000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9180000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9254000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9275000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9307000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9464000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9153000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8512000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8200000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-350000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-49000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>467000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>766000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1033000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1156000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1455000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1909000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1062000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>720000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>705000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>906000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>775000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>515000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>758000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>547000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>836000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>635000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>807000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>819000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>797000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>498000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>922000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>681000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>697000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>571000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>982000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1644,180 +1676,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>51000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>38000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>28000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>55000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>109000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>13000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>9000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>6000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-12000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E21" s="3">
         <v>276000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>821000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1059000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1368000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1479000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1810000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2246000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1373000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1040000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1024000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1221000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1084000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>917000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1065000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>821000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1131000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>920000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1062000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1090000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1048000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>737000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1157000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>892000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>875000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>754000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1147000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1825,257 +1864,266 @@
         <v>89000</v>
       </c>
       <c r="E22" s="3">
+        <v>89000</v>
+      </c>
+      <c r="F22" s="3">
         <v>84000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>83000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>85000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>97000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>103000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>105000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>110000</v>
       </c>
       <c r="M22" s="3">
         <v>110000</v>
       </c>
       <c r="N22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="O22" s="3">
         <v>124000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>122000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>119000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>120000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>123000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>121000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>119000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>99000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>87000</v>
       </c>
       <c r="W22" s="3">
         <v>87000</v>
       </c>
       <c r="X22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>84000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>86000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>94000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>71000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>56000</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>58000</v>
       </c>
       <c r="AD22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-426000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-130000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>434000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>666000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>986000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1087000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1410000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1835000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>966000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>624000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>616000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>781000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>667000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>505000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>657000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>409000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>724000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>528000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>713000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>757000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>723000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>423000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>842000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>580000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>617000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>519000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>912000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-39000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>114000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>129000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>233000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>254000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>284000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>477000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>213000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>147000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>144000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>165000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>140000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>126000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>148000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>79000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>43000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>98000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>161000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>220000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>182000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>116000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>204000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>185000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>169000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>178000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>318000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2160,180 +2208,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-435000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-91000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>320000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>537000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>753000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>833000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1126000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1358000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>753000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>477000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>472000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>616000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>527000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>379000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>509000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>330000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>681000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>430000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>552000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>537000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>541000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>307000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>638000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>395000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>448000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>341000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>594000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-417000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-97000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>316000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>538000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>750000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>829000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1121000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1355000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>749000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>476000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>467000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>613000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>527000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>376000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>505000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>327000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>676000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>426000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>551000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>537000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>540000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>306000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>637000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>394000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>447000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>340000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>593000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2418,8 +2475,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2462,8 +2522,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2477,20 +2537,20 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>1000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>9000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>994000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2504,8 +2564,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2590,8 +2653,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2676,180 +2742,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-51000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-38000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-28000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-55000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-109000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-13000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>9000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>12000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-417000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-97000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>316000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>538000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>750000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>829000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1121000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1355000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>749000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>476000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>467000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>613000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>527000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>376000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>505000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>327000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>676000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>426000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>551000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>537000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>541000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>315000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1631000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>394000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>447000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>340000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>593000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2934,185 +3009,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-417000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-97000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>316000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>538000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>750000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>829000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1121000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1355000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>749000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>476000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>467000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>613000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>527000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>376000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>505000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>327000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>676000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>426000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>551000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>537000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>541000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>315000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1631000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>394000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>447000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>340000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>593000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44107</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3143,8 +3227,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3175,94 +3260,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E41" s="3">
         <v>543000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>654000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1031000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1056000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1151000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2956000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2507000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1613000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>877000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2406000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1420000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1365000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>437000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>497000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>484000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>406000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>360000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>270000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>170000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>198000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>293000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>318000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>231000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>243000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>307000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3347,352 +3436,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2451000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2433000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2295000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2577000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2518000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2408000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2091000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2324000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2113000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1952000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2064000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2248000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2063000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4346000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2452000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1837000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1892000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1723000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1684000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1594000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1600000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1675000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1710000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1589000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1512000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5391000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5504000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5596000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5514000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5332000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4990000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4454000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4382000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4262000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4128000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3915000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3859000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3915000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4025000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4304000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3929000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4149000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3899000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3777000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3513000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3378000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3328000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3213000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3239000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3248000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2970000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2767000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>342000</v>
+      </c>
+      <c r="E45" s="3">
         <v>412000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>408000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>508000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>397000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>448000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>635000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>533000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1009000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>896000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>323000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>367000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>355000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>389000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>329000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>404000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>426000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>280000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>232000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>182000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>845000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>870000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>887000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1026000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1099000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>215000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>156000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8883000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8892000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8953000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9630000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9303000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8997000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10136000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9822000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9208000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8014000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8544000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7598000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7699000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7099000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7193000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6990000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7433000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6376000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6301000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5688000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6077000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5990000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5993000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6258000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6288000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5017000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4742000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3777,180 +3881,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9612000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9351000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9120000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9192000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8393000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8193000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8012000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7837000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7725000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7661000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7664000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8128000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8055000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8005000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7911000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7282000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7271000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7085000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7018000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6169000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5925000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5755000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5673000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5568000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5545000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5283000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5206000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16366000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16707000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16763000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16765000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16856000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16945000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17009000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17068000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17141000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17204000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17632000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17673000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17732000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17745000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17837000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17881000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>18150000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18241000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18255000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>16498000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>15903000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>15635000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>15686000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>15567000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>15636000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>11705000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>11733000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4035,8 +4148,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4121,94 +4237,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1846000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1842000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1234000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1693000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1763000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1667000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1582000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1589000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1595000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1618000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1057000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1072000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1041000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>870000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>765000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>811000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>796000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>761000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>754000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>733000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>711000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>694000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>673000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>594000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>591000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>576000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4293,94 +4415,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36761000</v>
+      </c>
+      <c r="E54" s="3">
         <v>36796000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36678000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36821000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36245000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35898000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36824000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36309000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35663000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34474000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35458000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34456000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34558000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33890000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33811000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32918000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33665000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32498000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32335000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>29109000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28638000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28091000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28046000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28066000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>28063000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>22596000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>22257000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4411,8 +4539,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4443,524 +4572,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2421000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2387000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2530000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2483000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2306000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2269000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2115000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2225000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1950000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1997000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1876000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1743000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1742000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1916000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1926000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1958000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1710000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1962000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1694000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1546000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1485000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1748000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1698000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1608000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1466000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1591000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>457000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1065000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>490000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>459000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>67000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>79000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1090000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1067000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1566000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>580000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>566000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>548000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>750000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1142000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1947000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2102000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2125000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1564000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3917000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1911000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1308000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1128000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>811000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>906000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1017000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>543000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>66000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2070000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1894000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2094000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2371000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2309000</v>
       </c>
       <c r="H59" s="3">
         <v>2309000</v>
       </c>
       <c r="I59" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="J59" s="3">
         <v>2829000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3033000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2668000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2132000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2286000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1810000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1780000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1522000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1673000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1485000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1514000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1340000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1551000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1426000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1258000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1225000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1419000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1428000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1240000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1097000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1315000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4948000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5346000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5114000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5313000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4682000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4657000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6034000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6325000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6184000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4612000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4849000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4234000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4273000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4406000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5536000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5513000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5597000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4614000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7430000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5031000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4112000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3838000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3978000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4032000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3865000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3106000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2972000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8863000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7865000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7859000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7862000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8261000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8270000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8274000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8281000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8786000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9784000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>10791000</v>
       </c>
       <c r="N61" s="3">
         <v>10791000</v>
       </c>
       <c r="O61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="P61" s="3">
         <v>11279000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10978000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9772000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9830000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10461000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10810000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8075000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7962000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8852000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8872000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8875000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9297000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9807000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5905000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5901000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4040000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4027000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3918000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3835000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3813000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3815000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3974000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3849000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4000000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4008000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4037000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4045000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4002000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3912000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3937000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3481000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3466000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3516000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3571000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3305000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3237000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3225000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3219000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4178000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4254000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3796000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3817000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5045,8 +5193,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5131,8 +5282,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5217,94 +5371,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17982000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17397000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17043000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17119000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16890000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16884000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18421000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18586000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19102000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18543000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19820000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19202000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19700000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19441000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19392000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18968000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19737000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19075000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19208000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16306000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16212000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15955000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16091000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>17525000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>17946000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12825000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>12707000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5335,8 +5495,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5421,8 +5582,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5507,8 +5671,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5593,8 +5760,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5679,94 +5849,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19378000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19962000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20225000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20084000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>19708000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19119000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18453000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17502000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16305000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15716000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15399000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15100000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14769000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14392000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14178000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13655000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13553000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13012000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12719000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12329000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11913000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11479000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11272000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9776000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9464000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9098000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>8837000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5851,8 +6027,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5937,8 +6116,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6023,94 +6205,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18779000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19399000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19635000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19702000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19355000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19014000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18403000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17723000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16561000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15931000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15638000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15254000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14858000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14449000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14419000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13950000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13928000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13423000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13127000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12803000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12426000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12136000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11955000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10541000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10117000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9771000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>9550000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6195,185 +6383,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44107</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-417000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-97000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>316000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>538000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>750000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>829000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1121000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1355000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>749000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>476000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>467000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>613000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>527000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>376000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>505000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>327000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>676000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>426000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>551000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>537000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>541000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>315000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1631000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>394000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>447000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>340000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>593000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6404,94 +6601,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E83" s="3">
         <v>317000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>303000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>310000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>297000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>295000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>308000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>302000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>306000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>298000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>316000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>295000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>293000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>288000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>289000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>286000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>273000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>250000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>246000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>238000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>230000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>229000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>218000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>187000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>179000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>177000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6576,8 +6777,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6662,8 +6866,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6748,8 +6955,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6834,8 +7044,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6920,94 +7133,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>660000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>762000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>797000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>666000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-208000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1432000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1184000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1307000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-36000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1385000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1166000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1448000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>366000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>894000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>978000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>596000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>71000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>868000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1039000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>785000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1126000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1150000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>467000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-152000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1134000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7038,94 +7257,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-467000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-508000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-589000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-564000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-476000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-439000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-408000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-350000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-302000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-268000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-289000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-292000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-312000</v>
       </c>
       <c r="Q91" s="3">
         <v>-312000</v>
       </c>
       <c r="R91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-288000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-315000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-338000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-318000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-313000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-328000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-263000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-296000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-287000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-315000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-267000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-200000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7210,8 +7433,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7296,94 +7522,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-696000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-507000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-669000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-610000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-440000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-426000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-459000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>841000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-275000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-249000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-259000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-280000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-266000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-496000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-381000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-129000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-569000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-317000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-483000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-737000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-264000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-422000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-297000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-264000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-214000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7414,8 +7646,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7423,22 +7656,22 @@
         <v>-167000</v>
       </c>
       <c r="E96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-169000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-162000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-164000</v>
       </c>
       <c r="I96" s="3">
         <v>-164000</v>
       </c>
       <c r="J96" s="3">
-        <v>-159000</v>
+        <v>-164000</v>
       </c>
       <c r="K96" s="3">
         <v>-159000</v>
@@ -7450,34 +7683,34 @@
         <v>-159000</v>
       </c>
       <c r="N96" s="3">
-        <v>-150000</v>
+        <v>-159000</v>
       </c>
       <c r="O96" s="3">
         <v>-150000</v>
       </c>
       <c r="P96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-134000</v>
       </c>
       <c r="S96" s="3">
         <v>-134000</v>
       </c>
       <c r="T96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-135000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-134000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-108000</v>
       </c>
       <c r="X96" s="3">
         <v>-108000</v>
@@ -7486,22 +7719,25 @@
         <v>-108000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-81000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-79000</v>
       </c>
       <c r="AC96" s="3">
         <v>-79000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7586,8 +7822,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7672,8 +7911,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7758,262 +8000,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E100" s="3">
         <v>381000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-482000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-195000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-361000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1283000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-484000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1189000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-197000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-173000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-874000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-255000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>168000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-507000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-761000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>20000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>201000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1711000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-455000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-71000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>153000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-729000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-769000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2908000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>348000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-957000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-24000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5000</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>4000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-111000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-377000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-159000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1913000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>491000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>829000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>836000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1463000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>969000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>928000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>22000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>78000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>46000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-40000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>130000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-28000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-95000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>87000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-12000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-64000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-42000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>152000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TSN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>TSN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,390 +665,403 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44107</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13348000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13140000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13133000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13260000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13737000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13495000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13117000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12933000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12811000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12478000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11300000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10460000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11460000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10022000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10888000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10815000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10884000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10885000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10443000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10193000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9999000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10051000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9773000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10229000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10145000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9850000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9083000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9182000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>9156000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12429000</v>
+        <v>12666000</v>
       </c>
       <c r="E9" s="3">
+        <v>12451000</v>
+      </c>
+      <c r="F9" s="3">
         <v>12518000</v>
       </c>
-      <c r="F9" s="3">
-        <v>12284000</v>
-      </c>
       <c r="G9" s="3">
+        <v>12319000</v>
+      </c>
+      <c r="H9" s="3">
         <v>12430000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11884000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11382000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10918000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10270000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10803000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9952000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9163000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9653000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8394000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9966000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9337000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19490000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9549000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9251000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8838000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8660000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8752000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8753000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8786000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8794000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8648000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8036000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>7699000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>8067000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>711000</v>
+        <v>682000</v>
       </c>
       <c r="E10" s="3">
+        <v>689000</v>
+      </c>
+      <c r="F10" s="3">
         <v>615000</v>
       </c>
-      <c r="F10" s="3">
-        <v>976000</v>
-      </c>
       <c r="G10" s="3">
+        <v>941000</v>
+      </c>
+      <c r="H10" s="3">
         <v>1307000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1611000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1735000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2015000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2541000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1675000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1348000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1297000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1807000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1628000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>922000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1478000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-8606000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1336000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1192000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1355000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1339000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1299000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1020000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1443000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1351000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1202000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1047000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1483000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1089000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1093,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,8 +1183,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,22 +1275,25 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>513000</v>
+        <v>581000</v>
       </c>
       <c r="E14" s="3">
+        <v>491000</v>
+      </c>
+      <c r="F14" s="3">
         <v>114000</v>
       </c>
-      <c r="F14" s="3">
-        <v>21000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>-14000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1284,50 +1304,50 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>65000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>95000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>120000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>223000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>342000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>52000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-40000</v>
-      </c>
-      <c r="U14" s="3">
-        <v>8000</v>
       </c>
       <c r="V14" s="3">
         <v>8000</v>
       </c>
       <c r="W14" s="3">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="X14" s="3">
         <v>14000</v>
       </c>
       <c r="Y14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1347,8 +1367,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1436,8 +1459,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1466,186 +1492,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13490000</v>
+        <v>13811000</v>
       </c>
       <c r="E17" s="3">
+        <v>13468000</v>
+      </c>
+      <c r="F17" s="3">
         <v>13182000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12793000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12971000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12462000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11961000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11478000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10902000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11416000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10580000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9755000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10554000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9247000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10373000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10057000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10337000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10049000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9808000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9386000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9180000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9254000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9275000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9307000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9464000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9153000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8512000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8200000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>8570000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-350000</v>
+        <v>-463000</v>
       </c>
       <c r="E18" s="3">
+        <v>-328000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-49000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>467000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>766000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1033000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1156000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1455000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1909000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1062000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>720000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>705000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>906000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>775000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>515000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>758000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>547000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>836000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>635000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>807000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>819000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>797000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>498000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>922000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>681000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>697000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>571000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>982000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>586000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1677,453 +1710,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>51000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>55000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>29000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="R20" s="3">
+        <v>109000</v>
+      </c>
+      <c r="S20" s="3">
+        <v>19000</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="U20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="V20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="W20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>13000</v>
       </c>
-      <c r="E20" s="3">
-        <v>8000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>51000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>38000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>28000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>55000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>29000</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="Z20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
-        <v>14000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>21000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>14000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>109000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>19000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>9000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>12000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>5000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>25000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>13000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>9000</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>6000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>4000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-12000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>276000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>821000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1059000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1368000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1479000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1810000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2246000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1373000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1040000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1024000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1221000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1084000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>917000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1065000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>821000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1131000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>920000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1062000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1090000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1048000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>737000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1157000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>892000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>875000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>754000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1147000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>768000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>89000</v>
+        <v>93000</v>
       </c>
       <c r="E22" s="3">
         <v>89000</v>
       </c>
       <c r="F22" s="3">
+        <v>89000</v>
+      </c>
+      <c r="G22" s="3">
         <v>84000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>83000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>85000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>97000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>103000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>105000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>110000</v>
       </c>
       <c r="N22" s="3">
         <v>110000</v>
       </c>
       <c r="O22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="P22" s="3">
         <v>124000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>122000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>119000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>120000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>123000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>121000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>119000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>99000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>87000</v>
       </c>
       <c r="X22" s="3">
         <v>87000</v>
       </c>
       <c r="Y22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>84000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>86000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>94000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>71000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>56000</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>58000</v>
       </c>
       <c r="AE22" s="3">
         <v>58000</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-556000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-426000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-130000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>434000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>666000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>986000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1087000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1410000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1835000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>966000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>624000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>616000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>781000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>667000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>505000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>657000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>409000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>724000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>528000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>713000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>757000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>723000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>423000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>842000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>580000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>617000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>519000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>912000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-39000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>114000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>129000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>233000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>254000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>284000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>477000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>213000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>147000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>144000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>165000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>140000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>126000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>148000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>79000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>43000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>98000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>161000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>220000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>182000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>116000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>204000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>185000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>169000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>178000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>318000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>139000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2211,186 +2260,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-443000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-435000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-91000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>320000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>537000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>753000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>833000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1126000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1358000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>753000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>477000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>472000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>616000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>527000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>379000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>509000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>330000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>681000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>430000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>552000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>537000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>541000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>307000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>638000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>395000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>448000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>341000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>594000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>392000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-450000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-417000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-97000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>316000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>538000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>750000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>829000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1121000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1355000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>749000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>476000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>467000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>613000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>527000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>376000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>505000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>327000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>676000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>426000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>551000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>537000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>540000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>306000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>637000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>394000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>447000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>340000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>593000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2478,8 +2536,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2525,8 +2586,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2540,20 +2601,20 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>1000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>9000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>994000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2567,8 +2628,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2656,8 +2720,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2745,186 +2812,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="T32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-13000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-51000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-28000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-55000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="Z32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-109000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>15000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>7000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>9000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-4000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>12000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-450000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-417000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-97000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>316000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>538000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>750000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>829000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1121000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1355000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>749000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>476000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>467000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>613000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>527000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>376000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>505000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>327000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>676000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>426000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>551000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>537000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>541000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>315000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1631000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>394000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>447000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>340000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>593000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3012,191 +3088,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-450000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-417000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-97000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>316000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>538000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>750000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>829000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1121000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1355000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>749000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>476000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>467000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>613000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>527000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>376000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>505000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>327000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>676000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>426000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>551000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>537000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>541000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>315000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1631000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>394000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>447000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>340000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>593000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44107</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3228,8 +3313,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3261,97 +3347,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>573000</v>
+      </c>
+      <c r="E41" s="3">
         <v>699000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>543000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>654000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1031000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1056000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1151000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2956000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2507000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1613000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>877000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2406000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1420000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1365000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>437000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>497000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>484000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>406000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>360000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>270000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>170000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>198000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>293000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>318000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>231000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>243000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>307000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3439,364 +3529,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2476000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2451000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2433000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2295000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2577000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2518000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2408000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2091000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2324000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2113000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1900000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1952000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2064000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2248000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2063000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4346000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2452000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1837000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1892000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1723000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1684000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1594000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1600000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1675000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1710000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1589000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1512000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1542000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5328000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5391000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5504000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5596000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5514000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5332000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4990000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4454000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4382000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4262000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4128000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3915000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3859000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3915000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4025000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4304000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3929000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4149000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3899000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3777000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3513000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3378000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3328000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3213000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3239000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3248000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2970000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2767000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2732000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E45" s="3">
         <v>342000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>412000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>408000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>508000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>397000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>448000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>635000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>533000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1009000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>896000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>323000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>367000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>355000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>389000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>329000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>404000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>426000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>280000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>232000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>182000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>845000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>870000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>887000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1026000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1099000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>215000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>156000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>265000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8722000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8883000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8892000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8953000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9630000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9303000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8997000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10136000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9822000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9208000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8014000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8544000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7598000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7699000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7099000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7193000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6990000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7433000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6376000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6301000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5688000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6077000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5990000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5993000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6258000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6288000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5017000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4742000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>4888000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3884,186 +3989,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9634000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9612000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9351000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9120000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9192000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8393000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8193000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8012000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7837000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7725000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7661000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7664000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8128000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8055000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8005000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7911000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7282000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7271000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7085000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7018000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6169000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5925000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5755000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5673000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5568000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5545000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5283000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>5206000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>5170000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15976000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16366000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16707000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16763000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16765000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16856000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16945000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17009000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17068000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17141000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17204000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17632000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17673000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17732000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17745000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17837000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17881000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>18150000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>18241000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>18255000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>16498000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>15903000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>15635000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>15686000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>15567000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>15636000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>11705000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>11733000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>11753000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4151,8 +4265,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4240,97 +4357,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1919000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1846000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1842000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1234000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1693000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1763000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1667000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1582000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1589000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1595000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1618000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1057000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1072000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1041000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>870000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>765000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>811000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>796000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>761000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>754000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>733000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>711000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>694000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>673000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>594000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>591000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>576000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>562000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4418,97 +4541,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36251000</v>
+      </c>
+      <c r="E54" s="3">
         <v>36761000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36796000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36678000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36821000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36245000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35898000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36824000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36309000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35663000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34474000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35458000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34456000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34558000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33890000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33811000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32918000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>33665000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32498000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>32335000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>29109000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28638000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28091000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28046000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>28066000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>28063000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>22596000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>22257000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>22373000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4540,8 +4669,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4573,542 +4703,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2594000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2421000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2387000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2530000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2483000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2306000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2269000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2115000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2225000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1950000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1997000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1876000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1743000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1742000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1916000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1926000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1958000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1710000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1962000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1694000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1546000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1485000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1748000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1698000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1608000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1466000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1591000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1511000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1895000</v>
+      </c>
+      <c r="E58" s="3">
         <v>457000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1065000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>490000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>459000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>67000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>79000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1090000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1067000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1566000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>580000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>566000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>548000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>750000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1142000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1947000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2102000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2125000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1564000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3917000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1911000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1308000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1128000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>811000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>906000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1017000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>543000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>66000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2070000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1894000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2094000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2371000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2309000</v>
       </c>
       <c r="I59" s="3">
         <v>2309000</v>
       </c>
       <c r="J59" s="3">
+        <v>2309000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2829000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3033000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2668000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2132000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2286000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1810000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1780000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1522000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1673000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1485000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1514000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1340000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1551000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1426000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1258000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1225000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1419000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1428000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1240000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1097000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1315000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6499000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4948000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5346000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5114000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5313000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4682000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4657000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6034000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6325000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6184000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4612000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4849000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4234000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4273000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4406000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5536000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5513000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5597000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4614000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7430000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5031000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4112000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3838000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3978000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4032000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3865000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3106000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2972000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2762000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7611000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8863000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7865000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7859000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7862000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8261000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8270000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8274000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8281000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8786000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9784000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>10791000</v>
       </c>
       <c r="O61" s="3">
         <v>10791000</v>
       </c>
       <c r="P61" s="3">
+        <v>10791000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>11279000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10978000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9772000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9830000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10461000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10810000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8075000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7962000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8852000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8872000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8875000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9297000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9807000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5905000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5901000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>6200000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3886000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4040000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4027000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3918000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3835000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3813000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3815000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3974000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3849000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4000000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4008000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4037000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4045000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4002000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3912000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3937000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3481000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3466000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3516000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3571000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3305000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3237000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3225000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3219000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4178000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4254000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3796000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>3817000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>3787000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5196,8 +5345,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5285,8 +5437,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5374,97 +5529,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18118000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17982000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17397000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17043000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17119000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16890000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16884000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18421000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18586000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19102000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18543000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19820000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19202000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19700000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19441000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19392000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18968000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19737000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19075000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19208000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16306000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16212000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15955000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16091000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>17525000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>17946000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>12825000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>12707000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>12765000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5496,8 +5657,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5585,8 +5747,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5674,8 +5839,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5763,8 +5931,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5852,97 +6023,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18760000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19378000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19962000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20225000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20084000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19708000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19119000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18453000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17502000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16305000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15716000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15399000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15100000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14769000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14392000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14178000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13655000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13553000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13012000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12719000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12329000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11913000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11479000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11272000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9776000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9464000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>9098000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>8837000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>8348000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6030,8 +6207,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6119,8 +6299,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6208,97 +6391,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18133000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18779000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19399000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19635000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19702000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19355000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19014000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18403000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17723000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16561000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15931000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15638000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15254000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14858000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14449000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14419000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13950000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13928000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13423000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13127000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12803000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12426000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12136000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11955000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10541000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10117000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>9771000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>9550000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>9608000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6386,191 +6575,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44107</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-450000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-417000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-97000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>316000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>538000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>750000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>829000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1121000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1355000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>749000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>476000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>467000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>613000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>527000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>376000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>505000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>327000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>676000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>426000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>551000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>537000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>541000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>315000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1631000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>394000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>447000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>340000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>593000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6602,97 +6800,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E83" s="3">
         <v>323000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>317000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>303000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>310000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>297000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>295000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>308000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>302000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>306000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>298000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>316000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>295000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>293000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>288000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>289000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>286000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>273000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>250000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>246000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>238000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>230000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>229000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>218000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>187000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>179000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>177000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6780,8 +6982,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6869,8 +7074,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6958,8 +7166,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7047,8 +7258,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7136,97 +7350,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E89" s="3">
         <v>660000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>762000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>797000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>666000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-208000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1432000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1184000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1307000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-36000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1385000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1166000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1448000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>366000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>894000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>978000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>596000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>71000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>868000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1039000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>785000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1126000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1150000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>467000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-152000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1134000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>843000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7258,97 +7478,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-375000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-467000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-508000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-589000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-564000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-476000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-439000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-408000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-350000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-302000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-268000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-289000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-292000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-283000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-312000</v>
       </c>
       <c r="R91" s="3">
         <v>-312000</v>
       </c>
       <c r="S91" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-288000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-315000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-338000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-318000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-313000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-328000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-263000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-296000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-287000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-315000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-267000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-200000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-180000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7436,8 +7660,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7525,97 +7752,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-696000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-507000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-669000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-610000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-440000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-426000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-459000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>841000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-275000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-249000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-259000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-280000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-266000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-496000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-381000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-129000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-569000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-317000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2449000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-483000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-737000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-264000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-422000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-297000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3389000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-264000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-214000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-182000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7647,8 +7880,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7659,22 +7893,22 @@
         <v>-167000</v>
       </c>
       <c r="F96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-169000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-162000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-163000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-164000</v>
       </c>
       <c r="J96" s="3">
         <v>-164000</v>
       </c>
       <c r="K96" s="3">
-        <v>-159000</v>
+        <v>-164000</v>
       </c>
       <c r="L96" s="3">
         <v>-159000</v>
@@ -7686,34 +7920,34 @@
         <v>-159000</v>
       </c>
       <c r="O96" s="3">
-        <v>-150000</v>
+        <v>-159000</v>
       </c>
       <c r="P96" s="3">
         <v>-150000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-151000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-150000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-134000</v>
       </c>
       <c r="T96" s="3">
         <v>-134000</v>
       </c>
       <c r="U96" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-135000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-134000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-107000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-108000</v>
       </c>
       <c r="Y96" s="3">
         <v>-108000</v>
@@ -7722,22 +7956,25 @@
         <v>-108000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-81000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-80000</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>-79000</v>
       </c>
       <c r="AD96" s="3">
         <v>-79000</v>
       </c>
       <c r="AE96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7825,8 +8062,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7914,8 +8154,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8003,271 +8246,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E100" s="3">
         <v>202000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>381000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-482000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-195000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-361000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1283000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-484000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1189000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-197000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1172000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-173000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-874000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-255000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>168000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-507000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-761000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>20000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>201000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1711000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-455000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-71000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>153000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-729000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-769000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2908000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>348000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-957000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-510000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-17000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-24000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-16000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5000</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>3000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>4000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-5000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="E102" s="3">
         <v>156000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-111000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-377000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-159000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1913000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>491000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>829000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>836000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1463000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>969000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>928000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>22000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>78000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>46000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-40000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>130000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-95000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>87000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-12000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-64000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-42000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>152000</v>
       </c>
     </row>
